--- a/Matrices ModelRecAir.xlsx
+++ b/Matrices ModelRecAir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\22 FS\EVA_DSH\EVA_DSH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758F26DE-906C-41AC-894A-87D08A3FEF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF9E2D-CEAF-4213-833E-F67D7277D375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16956" yWindow="4116" windowWidth="11544" windowHeight="12480" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
+    <workbookView xWindow="11496" yWindow="24" windowWidth="11544" windowHeight="12480" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="63">
   <si>
     <t>mc</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>w7</t>
+  </si>
+  <si>
+    <t>mama A</t>
   </si>
 </sst>
 </file>
@@ -632,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701DF88A-65D7-4165-A88E-01FAFF2E9C69}">
   <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,7 +2185,7 @@
     <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>0</v>

--- a/Matrices ModelRecAir.xlsx
+++ b/Matrices ModelRecAir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\22 FS\EVA_DSH\EVA_DSH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF9E2D-CEAF-4213-833E-F67D7277D375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F7BBE-7E26-413A-81D1-CE7AF260F5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11496" yWindow="24" windowWidth="11544" windowHeight="12480" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="91">
   <si>
     <t>mc</t>
   </si>
@@ -258,12 +258,96 @@
   <si>
     <t>mama A</t>
   </si>
+  <si>
+    <t>HX</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>XM</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Qx</t>
+  </si>
+  <si>
+    <t>Θs</t>
+  </si>
+  <si>
+    <t>ws</t>
+  </si>
+  <si>
+    <t>-UA</t>
+  </si>
+  <si>
+    <t>Ql</t>
+  </si>
+  <si>
+    <t>Qs</t>
+  </si>
+  <si>
+    <t>(1-b)mc</t>
+  </si>
+  <si>
+    <t>(1-b)ml</t>
+  </si>
+  <si>
+    <t>psy..wsp(Θs0)</t>
+  </si>
+  <si>
+    <t>XH</t>
+  </si>
+  <si>
+    <t>-(1-b)</t>
+  </si>
+  <si>
+    <t>UA(Θ3-Θ1)</t>
+  </si>
+  <si>
+    <t>mcΘ1</t>
+  </si>
+  <si>
+    <t>(1-b)mcΘ3</t>
+  </si>
+  <si>
+    <t>bΘ3</t>
+  </si>
+  <si>
+    <t>(1-b)mlw1</t>
+  </si>
+  <si>
+    <t>psy..wsp(Θs0)-ws</t>
+  </si>
+  <si>
+    <t>bw3</t>
+  </si>
+  <si>
+    <t>Θ8</t>
+  </si>
+  <si>
+    <t>w8</t>
+  </si>
+  <si>
+    <t>Θ9</t>
+  </si>
+  <si>
+    <t>w9</t>
+  </si>
+  <si>
+    <t>-(1-b)mc</t>
+  </si>
+  <si>
+    <t>-b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +376,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,12 +410,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701DF88A-65D7-4165-A88E-01FAFF2E9C69}">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:BD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,8 +743,8 @@
     <col min="1" max="24" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
@@ -703,8 +802,83 @@
       <c r="X2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>3</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
+        <v>6</v>
+      </c>
+      <c r="AL2">
+        <v>7</v>
+      </c>
+      <c r="AM2">
+        <v>8</v>
+      </c>
+      <c r="AN2">
+        <v>9</v>
+      </c>
+      <c r="AO2">
+        <v>10</v>
+      </c>
+      <c r="AP2">
+        <v>11</v>
+      </c>
+      <c r="AQ2">
+        <v>12</v>
+      </c>
+      <c r="AR2">
+        <v>13</v>
+      </c>
+      <c r="AS2">
+        <v>14</v>
+      </c>
+      <c r="AT2">
+        <v>15</v>
+      </c>
+      <c r="AU2">
+        <v>16</v>
+      </c>
+      <c r="AV2">
+        <v>17</v>
+      </c>
+      <c r="AW2">
+        <v>18</v>
+      </c>
+      <c r="AX2">
+        <v>19</v>
+      </c>
+      <c r="AY2">
+        <v>20</v>
+      </c>
+      <c r="AZ2">
+        <v>21</v>
+      </c>
+      <c r="BA2">
+        <v>22</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -723,8 +897,23 @@
       <c r="X3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>-1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -743,8 +932,26 @@
       <c r="X4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>-1</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -766,8 +973,23 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -786,8 +1008,23 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -812,8 +1049,26 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -832,8 +1087,23 @@
       <c r="X8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -855,8 +1125,29 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -878,8 +1169,23 @@
       <c r="X10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>7</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL10">
+        <v>-1</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -901,8 +1207,26 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -921,8 +1245,26 @@
       <c r="X12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12">
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -944,8 +1286,26 @@
       <c r="X13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1327,23 @@
       <c r="X14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14">
+        <v>11</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1362,26 @@
       <c r="X15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15">
+        <v>12</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1007,8 +1400,26 @@
       <c r="X16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1438,23 @@
       <c r="X17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>14</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1047,8 +1473,23 @@
       <c r="X18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>15</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>39</v>
       </c>
@@ -1097,9 +1538,40 @@
       <c r="R19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD19">
+        <v>16</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>17</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1163,8 +1635,26 @@
       <c r="X21" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD21">
+        <v>18</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1183,8 +1673,23 @@
       <c r="X22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD22">
+        <v>19</v>
+      </c>
+      <c r="AR22">
+        <v>-1</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1203,8 +1708,26 @@
       <c r="X23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD23">
+        <v>20</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1749,23 @@
       <c r="X24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD24">
+        <v>21</v>
+      </c>
+      <c r="AR24">
+        <v>-1</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1246,8 +1784,29 @@
       <c r="X25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD25">
+        <v>22</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1272,8 +1831,80 @@
       <c r="X26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1315,8 +1946,41 @@
       <c r="X28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1338,8 +2002,32 @@
       <c r="X29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>2</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>4</v>
+      </c>
+      <c r="AP29">
+        <v>5</v>
+      </c>
+      <c r="AQ29">
+        <v>6</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1365,8 +2053,21 @@
       <c r="X30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1387,8 +2088,25 @@
       <c r="X31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="5"/>
+      <c r="AN31" s="1"/>
+      <c r="AQ31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AT31" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1410,8 +2128,24 @@
       <c r="X32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ32">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN32" s="5"/>
+      <c r="AQ32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1430,8 +2164,21 @@
       <c r="X33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ33">
+        <v>3</v>
+      </c>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1453,8 +2200,23 @@
       <c r="X34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ34">
+        <v>4</v>
+      </c>
+      <c r="AM34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1476,8 +2238,23 @@
       <c r="X35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ35">
+        <v>5</v>
+      </c>
+      <c r="AP35" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1496,8 +2273,30 @@
       <c r="X36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ36">
+        <v>6</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT36" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1516,8 +2315,29 @@
       <c r="X37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +2357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1556,9 +2376,84 @@
       <c r="X39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>39</v>
       </c>
@@ -1613,9 +2508,63 @@
       <c r="T41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
@@ -1679,8 +2628,77 @@
       <c r="X43" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>2</v>
+      </c>
+      <c r="AG43">
+        <v>3</v>
+      </c>
+      <c r="AH43">
+        <v>4</v>
+      </c>
+      <c r="AI43">
+        <v>5</v>
+      </c>
+      <c r="AJ43">
+        <v>6</v>
+      </c>
+      <c r="AK43">
+        <v>7</v>
+      </c>
+      <c r="AL43">
+        <v>8</v>
+      </c>
+      <c r="AM43">
+        <v>9</v>
+      </c>
+      <c r="AN43">
+        <v>10</v>
+      </c>
+      <c r="AO43">
+        <v>11</v>
+      </c>
+      <c r="AP43">
+        <v>12</v>
+      </c>
+      <c r="AQ43">
+        <v>13</v>
+      </c>
+      <c r="AR43">
+        <v>14</v>
+      </c>
+      <c r="AS43">
+        <v>15</v>
+      </c>
+      <c r="AT43">
+        <v>16</v>
+      </c>
+      <c r="AU43">
+        <v>17</v>
+      </c>
+      <c r="AV43">
+        <v>18</v>
+      </c>
+      <c r="AW43">
+        <v>19</v>
+      </c>
+      <c r="BA43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC43" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1702,8 +2720,17 @@
       <c r="X44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1725,8 +2752,14 @@
       <c r="X45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1754,8 +2787,29 @@
       <c r="X46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>2</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1778,8 +2832,29 @@
       <c r="X47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB47">
+        <v>1</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1804,8 +2879,35 @@
       <c r="X48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1827,8 +2929,30 @@
       <c r="X49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC49">
+        <v>5</v>
+      </c>
+      <c r="AG49" s="1"/>
+      <c r="AH49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI49">
+        <v>-1</v>
+      </c>
+      <c r="BA49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1856,8 +2980,32 @@
       <c r="X50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC50">
+        <v>6</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT50">
+        <v>1</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1879,8 +3027,29 @@
       <c r="X51" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB51" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC51">
+        <v>7</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1905,8 +3074,35 @@
       <c r="X52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC52">
+        <v>8</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1931,8 +3127,29 @@
       <c r="X53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB53" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC53">
+        <v>9</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM53">
+        <v>-1</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB53">
+        <v>7</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1957,8 +3174,32 @@
       <c r="X54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB54" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC54">
+        <v>10</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB54">
+        <v>8</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1980,8 +3221,32 @@
       <c r="X55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC55">
+        <v>11</v>
+      </c>
+      <c r="AK55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2006,8 +3271,32 @@
       <c r="X56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC56">
+        <v>12</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU56">
+        <v>1</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB56">
+        <v>10</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2032,8 +3321,29 @@
       <c r="X57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB57" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57">
+        <v>13</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB57">
+        <v>11</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2055,8 +3365,32 @@
       <c r="X58" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC58">
+        <v>14</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV58">
+        <v>1</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB58">
+        <v>12</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2078,8 +3412,32 @@
       <c r="X59" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC59">
+        <v>15</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW59">
+        <v>1</v>
+      </c>
+      <c r="BA59" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB59">
+        <v>13</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2101,8 +3459,29 @@
       <c r="X60" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB60" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC60">
+        <v>16</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV60">
+        <v>1</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB60">
+        <v>14</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2124,9 +3503,52 @@
       <c r="X61" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB61" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC61">
+        <v>17</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW61">
+        <v>1</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB61">
+        <v>15</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB62" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC62">
+        <v>18</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT62">
+        <v>1</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB62">
+        <v>16</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>39</v>
       </c>
@@ -2181,9 +3603,43 @@
       <c r="T63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB63" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC63">
+        <v>19</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU63">
+        <v>1</v>
+      </c>
+      <c r="BA63" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB63">
+        <v>17</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC64">
+        <v>20</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>62</v>
       </c>
@@ -2247,8 +3703,20 @@
       <c r="Z65" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC65">
+        <v>21</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -2270,8 +3738,20 @@
       <c r="Z66" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC66">
+        <v>22</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2293,8 +3773,20 @@
       <c r="Z67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB67" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC67">
+        <v>23</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +3814,14 @@
       <c r="Z68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -2346,8 +3844,11 @@
       <c r="Z69" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +3873,11 @@
       <c r="Z70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2395,8 +3899,11 @@
       <c r="Z71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2424,8 +3931,11 @@
       <c r="Z72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2447,8 +3957,11 @@
       <c r="Z73" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2473,8 +3986,11 @@
       <c r="Z74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2499,8 +4015,11 @@
       <c r="Z75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -2529,8 +4048,11 @@
       <c r="Z76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -2554,8 +4076,11 @@
       <c r="Z77" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2580,8 +4105,14 @@
       <c r="Z78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AT78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2603,8 +4134,44 @@
       <c r="Z79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>2</v>
+      </c>
+      <c r="AJ79">
+        <v>3</v>
+      </c>
+      <c r="AK79">
+        <v>4</v>
+      </c>
+      <c r="AL79">
+        <v>5</v>
+      </c>
+      <c r="AM79">
+        <v>6</v>
+      </c>
+      <c r="AN79">
+        <v>7</v>
+      </c>
+      <c r="AO79">
+        <v>8</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2629,8 +4196,36 @@
       <c r="Z80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE80" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="1"/>
+      <c r="AM80">
+        <v>-1</v>
+      </c>
+      <c r="AN80">
+        <v>-1</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2655,8 +4250,38 @@
       <c r="Z81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
+      </c>
+      <c r="AG81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM81">
+        <v>2</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2678,8 +4303,33 @@
       <c r="Z82" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE82" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF82">
+        <v>2</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="1"/>
+      <c r="AO82">
+        <v>-1</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2701,8 +4351,32 @@
       <c r="Z83" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF83">
+        <v>3</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT83" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2724,8 +4398,29 @@
       <c r="Z84" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE84" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF84">
+        <v>4</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2747,9 +4442,52 @@
       <c r="Z85" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF85">
+        <v>5</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ85">
+        <v>-1</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE86" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF86">
+        <v>6</v>
+      </c>
+      <c r="AI86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -2810,9 +4548,83 @@
       <c r="V87" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="AE87" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF87">
+        <v>7</v>
+      </c>
+      <c r="AJ87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR87" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE88" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF88">
+        <v>8</v>
+      </c>
+      <c r="AH88">
+        <v>1</v>
+      </c>
+      <c r="AJ88" s="1"/>
+      <c r="AP88" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT88" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AG89" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN89" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Matrices ModelRecAir.xlsx
+++ b/Matrices ModelRecAir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\22 FS\EVA_DSH\EVA_DSH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F7BBE-7E26-413A-81D1-CE7AF260F5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA37142D-36ED-4A14-A420-478A054BCA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="95">
   <si>
     <t>mc</t>
   </si>
@@ -337,10 +337,22 @@
     <t>w9</t>
   </si>
   <si>
-    <t>-(1-b)mc</t>
-  </si>
-  <si>
-    <t>-b</t>
+    <t>-UA_HX</t>
+  </si>
+  <si>
+    <t>-(1-b_HX)mc</t>
+  </si>
+  <si>
+    <t>(1-b_HX)mc</t>
+  </si>
+  <si>
+    <t>-b_HX</t>
+  </si>
+  <si>
+    <t>-(1-b_HX)</t>
+  </si>
+  <si>
+    <t>UA_HX</t>
   </si>
 </sst>
 </file>
@@ -734,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701DF88A-65D7-4165-A88E-01FAFF2E9C69}">
   <dimension ref="A1:BD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW27" sqref="AW27"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM67" sqref="AM67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,10 +1654,10 @@
         <v>18</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS21" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="BA21">
         <v>1</v>
@@ -1715,10 +1727,10 @@
         <v>20</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="AU23">
         <v>1</v>
@@ -1791,19 +1803,22 @@
         <v>22</v>
       </c>
       <c r="AE25" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AG25" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="BA25">
         <v>2</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">

--- a/Matrices ModelRecAir.xlsx
+++ b/Matrices ModelRecAir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\22 FS\EVA_DSH\EVA_DSH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA37142D-36ED-4A14-A420-478A054BCA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD676E8A-025B-409A-B0AA-F3DB3B8BCA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
+    <workbookView xWindow="7980" yWindow="3660" windowWidth="23040" windowHeight="12504" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="105">
   <si>
     <t>mc</t>
   </si>
@@ -298,9 +298,6 @@
     <t>psy..wsp(Θs0)</t>
   </si>
   <si>
-    <t>XH</t>
-  </si>
-  <si>
     <t>-(1-b)</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>bΘ3</t>
   </si>
   <si>
-    <t>(1-b)mlw1</t>
-  </si>
-  <si>
     <t>psy..wsp(Θs0)-ws</t>
   </si>
   <si>
@@ -353,13 +347,61 @@
   </si>
   <si>
     <t>UA_HX</t>
+  </si>
+  <si>
+    <t>HX1</t>
+  </si>
+  <si>
+    <t>HX2</t>
+  </si>
+  <si>
+    <t>XC1</t>
+  </si>
+  <si>
+    <t>XC2</t>
+  </si>
+  <si>
+    <t>XM1</t>
+  </si>
+  <si>
+    <t>XM2</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>(1-b_HX)ml</t>
+  </si>
+  <si>
+    <t>-(1-b_HX)ml</t>
+  </si>
+  <si>
+    <t>psy.wsp(Θs0)</t>
+  </si>
+  <si>
+    <t>psy.wsp(Θ_so)Θ_so - psy.w(Θ_so,1)</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-b)mlw3</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +443,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,6 +485,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701DF88A-65D7-4165-A88E-01FAFF2E9C69}">
-  <dimension ref="A1:BD89"/>
+  <dimension ref="A1:BE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM67" sqref="AM67"/>
+    <sheetView tabSelected="1" topLeftCell="AO39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT65" sqref="AT65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,10 +1713,10 @@
         <v>18</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AS21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BA21">
         <v>1</v>
@@ -1727,10 +1786,10 @@
         <v>20</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AU23">
         <v>1</v>
@@ -1803,16 +1862,16 @@
         <v>22</v>
       </c>
       <c r="AE25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AG25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BA25">
         <v>2</v>
@@ -1898,10 +1957,10 @@
         <v>61</v>
       </c>
       <c r="AU26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AV26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AW26" t="s">
         <v>51</v>
@@ -2118,7 +2177,7 @@
         <v>-1</v>
       </c>
       <c r="AT31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2157,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="AT32" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2222,16 +2281,16 @@
         <v>4</v>
       </c>
       <c r="AM34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO34" s="5">
         <v>1</v>
       </c>
       <c r="AT34" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2269,7 +2328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2308,10 +2367,10 @@
         <v>2</v>
       </c>
       <c r="AT36" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2352,7 +2411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2440,16 +2499,16 @@
         <v>61</v>
       </c>
       <c r="AT39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV39" t="s">
         <v>85</v>
       </c>
-      <c r="AU39" t="s">
+      <c r="AW39" t="s">
         <v>86</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>88</v>
       </c>
       <c r="AX39" t="s">
         <v>51</v>
@@ -2467,8 +2526,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>39</v>
       </c>
@@ -2578,8 +2637,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
@@ -2644,7 +2703,7 @@
         <v>30</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -2706,14 +2765,26 @@
       <c r="AW43">
         <v>19</v>
       </c>
-      <c r="BA43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC43" s="3" t="s">
+      <c r="AX43">
+        <v>20</v>
+      </c>
+      <c r="AY43">
+        <v>21</v>
+      </c>
+      <c r="AZ43">
+        <v>22</v>
+      </c>
+      <c r="BA43">
+        <v>23</v>
+      </c>
+      <c r="BB43">
+        <v>24</v>
+      </c>
+      <c r="BE43" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2741,11 +2812,23 @@
       <c r="AC44">
         <v>0</v>
       </c>
-      <c r="AD44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE44">
+        <v>-1</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2773,8 +2856,26 @@
       <c r="AC45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>-1</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD45">
+        <v>1</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2811,20 +2912,20 @@
       <c r="AF46" t="s">
         <v>0</v>
       </c>
-      <c r="AR46" s="1" t="s">
+      <c r="AP46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BA46" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
       <c r="BC46" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD46">
+        <v>2</v>
+      </c>
+      <c r="BE46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2856,20 +2957,20 @@
       <c r="AG47" t="s">
         <v>3</v>
       </c>
-      <c r="AS47" s="1" t="s">
+      <c r="AQ47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BA47" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB47">
-        <v>1</v>
-      </c>
       <c r="BC47" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD47">
+        <v>3</v>
+      </c>
+      <c r="BE47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2895,34 +2996,31 @@
         <v>0</v>
       </c>
       <c r="AB48" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="AC48">
         <v>4</v>
       </c>
       <c r="AF48" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG48" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB48">
-        <v>2</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD48">
+        <v>4</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2945,29 +3043,28 @@
         <v>0</v>
       </c>
       <c r="AB49" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="AC49">
         <v>5</v>
       </c>
-      <c r="AG49" s="1"/>
-      <c r="AH49" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI49">
-        <v>-1</v>
-      </c>
-      <c r="BA49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB49">
+      <c r="AG49" t="s">
         <v>3</v>
       </c>
+      <c r="AI49" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="BC49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>5</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2996,31 +3093,34 @@
         <v>0</v>
       </c>
       <c r="AB50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC50">
         <v>6</v>
       </c>
       <c r="AH50" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>15</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT50">
-        <v>1</v>
-      </c>
-      <c r="BA50" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB50">
-        <v>4</v>
-      </c>
-      <c r="BC50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD50">
+        <v>6</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3043,28 +3143,28 @@
         <v>33</v>
       </c>
       <c r="AB51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC51">
         <v>7</v>
       </c>
-      <c r="AI51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA51" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB51">
-        <v>5</v>
-      </c>
-      <c r="BC51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK51">
+        <v>-1</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD51">
+        <v>7</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3090,34 +3190,31 @@
         <v>0</v>
       </c>
       <c r="AB52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC52">
         <v>8</v>
       </c>
+      <c r="AH52" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="AJ52" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AL52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA52" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB52">
-        <v>6</v>
-      </c>
-      <c r="BC52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD52">
+        <v>8</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3143,28 +3240,31 @@
         <v>0</v>
       </c>
       <c r="AB53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC53">
         <v>9</v>
       </c>
-      <c r="AL53" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM53">
-        <v>-1</v>
-      </c>
-      <c r="BA53" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB53">
+      <c r="AI53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC53" t="s">
         <v>7</v>
       </c>
-      <c r="BC53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD53">
+        <v>9</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -3190,31 +3290,31 @@
         <v>0</v>
       </c>
       <c r="AB54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC54">
         <v>10</v>
       </c>
-      <c r="AJ54" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="AL54" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BA54" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB54">
+      <c r="AS54">
+        <v>1</v>
+      </c>
+      <c r="BC54" t="s">
         <v>8</v>
       </c>
-      <c r="BC54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD54">
+        <v>10</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3237,31 +3337,28 @@
         <v>0</v>
       </c>
       <c r="AB55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC55">
         <v>11</v>
       </c>
-      <c r="AK55" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="AM55" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AO55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BA55" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB55">
-        <v>9</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BC55" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD55">
+        <v>11</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3287,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="AB56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC56">
         <v>12</v>
@@ -3298,20 +3395,20 @@
       <c r="AP56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AU56">
-        <v>1</v>
-      </c>
-      <c r="BA56" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB56">
-        <v>10</v>
-      </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AT56">
+        <v>1</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD56">
+        <v>12</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3337,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="AB57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC57">
         <v>13</v>
@@ -3348,17 +3445,20 @@
       <c r="AQ57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BA57" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB57">
-        <v>11</v>
-      </c>
-      <c r="BC57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU57">
+        <v>1</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD57">
+        <v>13</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3381,31 +3481,28 @@
         <v>34</v>
       </c>
       <c r="AB58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC58">
         <v>14</v>
       </c>
       <c r="AP58" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV58">
-        <v>1</v>
-      </c>
-      <c r="BA58" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB58">
-        <v>12</v>
-      </c>
-      <c r="BC58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="AT58">
+        <v>1</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD58">
+        <v>14</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3428,31 +3525,28 @@
         <v>35</v>
       </c>
       <c r="AB59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC59">
         <v>15</v>
       </c>
       <c r="AQ59" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW59">
-        <v>1</v>
-      </c>
-      <c r="BA59" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB59">
-        <v>13</v>
-      </c>
-      <c r="BC59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="AU59">
+        <v>1</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>15</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3475,28 +3569,28 @@
         <v>36</v>
       </c>
       <c r="AB60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC60">
         <v>16</v>
       </c>
-      <c r="AR60" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV60">
-        <v>1</v>
-      </c>
-      <c r="BA60" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB60">
-        <v>14</v>
+      <c r="AP60" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
       </c>
       <c r="BC60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>16</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3519,51 +3613,54 @@
         <v>37</v>
       </c>
       <c r="AB61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC61">
         <v>17</v>
       </c>
-      <c r="AS61" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW61">
-        <v>1</v>
-      </c>
-      <c r="BA61" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB61">
-        <v>15</v>
+      <c r="AQ61" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS61">
+        <v>1</v>
       </c>
       <c r="BC61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>17</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB62" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="AC62">
         <v>18</v>
       </c>
+      <c r="AP62" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AR62" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT62">
-        <v>1</v>
-      </c>
-      <c r="BA62" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB62">
-        <v>16</v>
+        <v>89</v>
+      </c>
+      <c r="BA62" s="9">
+        <v>1</v>
       </c>
       <c r="BC62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="BD62">
+        <v>18</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>39</v>
       </c>
@@ -3619,42 +3716,57 @@
         <v>54</v>
       </c>
       <c r="AB63" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="AC63">
         <v>19</v>
       </c>
-      <c r="AS63" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU63">
-        <v>1</v>
-      </c>
-      <c r="BA63" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB63">
-        <v>17</v>
+      <c r="AQ63" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS63" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB63" s="9">
+        <v>1</v>
       </c>
       <c r="BC63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="BD63">
+        <v>19</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC64">
         <v>20</v>
       </c>
-      <c r="AT64" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD64">
+        <v>20</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>62</v>
       </c>
@@ -3719,19 +3831,33 @@
         <v>30</v>
       </c>
       <c r="AB65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC65">
         <v>21</v>
       </c>
-      <c r="AT65" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ65" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR65" s="9"/>
+      <c r="AS65" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT65" s="9"/>
+      <c r="AU65" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC65" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD65">
+        <v>21</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3754,19 +3880,40 @@
         <v>31</v>
       </c>
       <c r="AB66" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="AC66">
         <v>22</v>
       </c>
-      <c r="AT66" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD66" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA66" s="9">
+        <v>2</v>
+      </c>
+      <c r="BB66" s="9">
+        <v>2</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD66">
+        <v>22</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -3789,19 +3936,28 @@
         <v>32</v>
       </c>
       <c r="AB67" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="AC67">
         <v>23</v>
       </c>
-      <c r="AT67" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AR67" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS67" s="9">
+        <v>-1</v>
+      </c>
+      <c r="BC67" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD67">
+        <v>23</v>
+      </c>
+      <c r="BE67" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -3830,13 +3986,31 @@
         <v>0</v>
       </c>
       <c r="AB68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="AC68">
+        <v>24</v>
+      </c>
+      <c r="AZ68">
+        <v>1</v>
+      </c>
+      <c r="BA68">
+        <v>-1</v>
+      </c>
+      <c r="BB68">
+        <v>-1</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD68">
+        <v>24</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -3859,11 +4033,86 @@
       <c r="Z69" t="s">
         <v>33</v>
       </c>
+      <c r="AC69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>84</v>
+      </c>
       <c r="AV69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA69" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3888,11 +4137,8 @@
       <c r="Z70">
         <v>0</v>
       </c>
-      <c r="AV70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3914,11 +4160,47 @@
       <c r="Z71">
         <v>0</v>
       </c>
-      <c r="AV71" t="s">
+      <c r="AD71" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AR71" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3946,11 +4228,8 @@
       <c r="Z72">
         <v>0</v>
       </c>
-      <c r="AV72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -3972,11 +4251,38 @@
       <c r="Z73" t="s">
         <v>33</v>
       </c>
-      <c r="AV73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>2</v>
+      </c>
+      <c r="AM73">
+        <v>3</v>
+      </c>
+      <c r="AN73">
+        <v>4</v>
+      </c>
+      <c r="AO73">
+        <v>5</v>
+      </c>
+      <c r="AP73">
+        <v>6</v>
+      </c>
+      <c r="AQ73">
+        <v>7</v>
+      </c>
+      <c r="AR73">
+        <v>8</v>
+      </c>
+      <c r="AT73" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -4001,11 +4307,22 @@
       <c r="Z74">
         <v>0</v>
       </c>
-      <c r="AV74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH74" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI74">
+        <v>8</v>
+      </c>
+      <c r="AK74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM74" s="1"/>
+      <c r="AT74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU74" s="7"/>
+    </row>
+    <row r="75" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -4030,11 +4347,25 @@
       <c r="Z75">
         <v>0</v>
       </c>
-      <c r="AV75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH75" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="1"/>
+      <c r="AR75" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AT75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU75" s="7"/>
+    </row>
+    <row r="76" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -4063,11 +4394,24 @@
       <c r="Z76">
         <v>0</v>
       </c>
-      <c r="AV76" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI76">
+        <v>3</v>
+      </c>
+      <c r="AL76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU76" s="7"/>
+    </row>
+    <row r="77" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -4091,11 +4435,24 @@
       <c r="Z77" t="s">
         <v>33</v>
       </c>
-      <c r="AV77" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI77">
+        <v>4</v>
+      </c>
+      <c r="AM77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ77" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU77" s="7"/>
+    </row>
+    <row r="78" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -4120,14 +4477,24 @@
       <c r="Z78">
         <v>0</v>
       </c>
-      <c r="AT78" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH78" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI78">
+        <v>6</v>
+      </c>
+      <c r="AL78" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN78" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU78" s="7"/>
+    </row>
+    <row r="79" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -4149,44 +4516,25 @@
       <c r="Z79">
         <v>0</v>
       </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <v>1</v>
+      <c r="AH79" t="s">
+        <v>98</v>
       </c>
       <c r="AI79">
-        <v>2</v>
-      </c>
-      <c r="AJ79">
-        <v>3</v>
-      </c>
-      <c r="AK79">
-        <v>4</v>
-      </c>
-      <c r="AL79">
-        <v>5</v>
-      </c>
-      <c r="AM79">
-        <v>6</v>
-      </c>
-      <c r="AN79">
         <v>7</v>
       </c>
-      <c r="AO79">
-        <v>8</v>
-      </c>
-      <c r="AP79" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT79" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM79" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT79" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU79" s="7"/>
+    </row>
+    <row r="80" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -4211,36 +4559,30 @@
       <c r="Z80">
         <v>0</v>
       </c>
-      <c r="AE80" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF80">
-        <v>0</v>
-      </c>
-      <c r="AI80" s="1"/>
-      <c r="AM80">
-        <v>-1</v>
-      </c>
-      <c r="AN80">
-        <v>-1</v>
-      </c>
-      <c r="AO80">
-        <v>1</v>
-      </c>
-      <c r="AP80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR80">
-        <v>0</v>
-      </c>
-      <c r="AT80" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH80" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
+      </c>
+      <c r="AJ80" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL80" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP80" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ80" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU80" s="7"/>
+    </row>
+    <row r="81" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4265,38 +4607,29 @@
       <c r="Z81">
         <v>0</v>
       </c>
-      <c r="AE81" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF81">
-        <v>1</v>
-      </c>
-      <c r="AG81" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI81" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM81">
-        <v>2</v>
-      </c>
-      <c r="AN81">
-        <v>2</v>
-      </c>
-      <c r="AP81" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR81" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT81" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH81" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI81">
+        <v>5</v>
+      </c>
+      <c r="AL81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM81" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="5"/>
+      <c r="AP81" s="5"/>
+      <c r="AQ81" s="5"/>
+      <c r="AR81" s="5"/>
+      <c r="AS81" s="5"/>
+      <c r="AT81" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4318,33 +4651,28 @@
       <c r="Z82" t="s">
         <v>34</v>
       </c>
-      <c r="AE82" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF82">
-        <v>2</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK82" s="1"/>
-      <c r="AO82">
+      <c r="AH82" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="1"/>
+      <c r="AP82" s="5">
         <v>-1</v>
       </c>
-      <c r="AP82" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR82" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT82" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ82" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AR82" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS82" s="5"/>
+      <c r="AT82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4366,32 +4694,38 @@
       <c r="Z83" t="s">
         <v>35</v>
       </c>
-      <c r="AE83" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF83">
-        <v>3</v>
-      </c>
-      <c r="AI83" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM83">
-        <v>1</v>
+      <c r="AC83" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>48</v>
       </c>
       <c r="AP83" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>71</v>
       </c>
       <c r="AR83" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT83" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -4413,29 +4747,11 @@
       <c r="Z84" t="s">
         <v>36</v>
       </c>
-      <c r="AE84" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF84">
-        <v>4</v>
-      </c>
-      <c r="AJ84" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN84">
-        <v>1</v>
-      </c>
-      <c r="AP84" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR84" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -4457,52 +4773,61 @@
       <c r="Z85" t="s">
         <v>37</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="AC85" t="s">
         <v>64</v>
       </c>
-      <c r="AF85">
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>2</v>
+      </c>
+      <c r="AM85">
+        <v>3</v>
+      </c>
+      <c r="AN85">
+        <v>4</v>
+      </c>
+      <c r="AO85">
         <v>5</v>
       </c>
-      <c r="AI85" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ85">
-        <v>-1</v>
-      </c>
-      <c r="AP85" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR85" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV85" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE86" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF86">
+      <c r="AP85">
         <v>6</v>
       </c>
-      <c r="AI86" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK86">
-        <v>1</v>
-      </c>
-      <c r="AP86" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR86" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AT85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC86" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7"/>
+      <c r="AT86" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -4563,83 +4888,188 @@
       <c r="V87" t="s">
         <v>54</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AC87" t="s">
         <v>65</v>
       </c>
-      <c r="AF87">
-        <v>7</v>
-      </c>
-      <c r="AJ87" s="1" t="s">
+      <c r="AH87" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI87">
+        <v>1</v>
+      </c>
+      <c r="AJ87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7"/>
+      <c r="AT87" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC88" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI88">
+        <v>2</v>
+      </c>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AC89" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI89">
+        <v>3</v>
+      </c>
+      <c r="AJ89" s="7"/>
+      <c r="AK89" s="7"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN89" s="7"/>
+      <c r="AO89" s="7"/>
+      <c r="AP89" s="7"/>
+      <c r="AQ89" s="7"/>
+      <c r="AR89" s="7"/>
+      <c r="AS89" s="7"/>
+      <c r="AT89" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AH90" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI90">
+        <v>4</v>
+      </c>
+      <c r="AJ90" s="7"/>
+      <c r="AK90" s="7"/>
+      <c r="AL90" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="7"/>
+      <c r="AS90" s="7"/>
+      <c r="AT90" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AH91" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI91">
+        <v>5</v>
+      </c>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AH92" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI92">
+        <v>6</v>
+      </c>
+      <c r="AJ92" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK92" s="7"/>
+      <c r="AL92" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+      <c r="AO92" s="7"/>
+      <c r="AP92" s="7">
+        <v>2</v>
+      </c>
+      <c r="AQ92" s="7"/>
+      <c r="AR92" s="7"/>
+      <c r="AS92" s="7"/>
+      <c r="AT92" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AL87">
-        <v>1</v>
-      </c>
-      <c r="AP87" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR87" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV87" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="88" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE88" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF88">
-        <v>8</v>
-      </c>
-      <c r="AH88">
-        <v>1</v>
-      </c>
-      <c r="AJ88" s="1"/>
-      <c r="AP88" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR88" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT88" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="AG89" t="s">
+    </row>
+    <row r="93" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AJ93" t="s">
         <v>43</v>
       </c>
-      <c r="AH89" t="s">
+      <c r="AK93" t="s">
         <v>44</v>
       </c>
-      <c r="AI89" t="s">
+      <c r="AL93" t="s">
         <v>68</v>
       </c>
-      <c r="AJ89" t="s">
+      <c r="AM93" t="s">
         <v>69</v>
       </c>
-      <c r="AK89" t="s">
+      <c r="AN93" t="s">
         <v>47</v>
       </c>
-      <c r="AL89" t="s">
+      <c r="AO93" t="s">
         <v>48</v>
       </c>
-      <c r="AM89" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN89" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO89" t="s">
+      <c r="AP93" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Matrices ModelRecAir.xlsx
+++ b/Matrices ModelRecAir.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leni\Nextcloud\Lena\ZHAW\22 FS\EVA_DSH\EVA_DSH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\GitHub\EVA_DSH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD676E8A-025B-409A-B0AA-F3DB3B8BCA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405F43A1-0307-4C86-B0F1-0E89C3D14CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="3660" windowWidth="23040" windowHeight="12504" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="114">
   <si>
     <t>mc</t>
   </si>
@@ -395,6 +395,33 @@
       </rPr>
       <t>1-b)mlw3</t>
     </r>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>amc</t>
+  </si>
+  <si>
+    <t>(1-a)mc</t>
+  </si>
+  <si>
+    <t>-mcΘ_o</t>
+  </si>
+  <si>
+    <t>aml</t>
+  </si>
+  <si>
+    <t>(1-a)ml</t>
+  </si>
+  <si>
+    <t>b_HX</t>
+  </si>
+  <si>
+    <t>(1-b_HX)</t>
+  </si>
+  <si>
+    <t>-UA_HX*Θo</t>
   </si>
 </sst>
 </file>
@@ -507,7 +534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -805,11 +832,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701DF88A-65D7-4165-A88E-01FAFF2E9C69}">
   <dimension ref="A1:BE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT65" sqref="AT65"/>
+    <sheetView tabSelected="1" topLeftCell="Z36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BE67" sqref="BE67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="24" width="7.77734375" customWidth="1"/>
   </cols>
@@ -2812,10 +2839,10 @@
       <c r="AC44">
         <v>0</v>
       </c>
-      <c r="AE44">
-        <v>-1</v>
-      </c>
-      <c r="AG44">
+      <c r="AD44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ44">
         <v>1</v>
       </c>
       <c r="BC44" t="s">
@@ -2824,8 +2851,8 @@
       <c r="BD44">
         <v>0</v>
       </c>
-      <c r="BE44">
-        <v>0</v>
+      <c r="BE44" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2856,14 +2883,8 @@
       <c r="AC45">
         <v>1</v>
       </c>
-      <c r="AD45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ45">
-        <v>-1</v>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="BC45" t="s">
         <v>63</v>
@@ -2871,8 +2892,8 @@
       <c r="BD45">
         <v>1</v>
       </c>
-      <c r="BE45">
-        <v>0</v>
+      <c r="BE45" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2909,11 +2930,14 @@
       <c r="AC46">
         <v>2</v>
       </c>
-      <c r="AF46" t="s">
-        <v>0</v>
+      <c r="AD46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="AP46" s="1" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="BC46" t="s">
         <v>1</v>
@@ -2921,8 +2945,8 @@
       <c r="BD46">
         <v>2</v>
       </c>
-      <c r="BE46" t="s">
-        <v>31</v>
+      <c r="BE46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2954,11 +2978,14 @@
       <c r="AC47">
         <v>3</v>
       </c>
-      <c r="AG47" t="s">
-        <v>3</v>
+      <c r="AE47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="AQ47" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="BC47" t="s">
         <v>1</v>
@@ -2966,8 +2993,8 @@
       <c r="BD47">
         <v>3</v>
       </c>
-      <c r="BE47" t="s">
-        <v>32</v>
+      <c r="BE47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3001,13 +3028,13 @@
       <c r="AC48">
         <v>4</v>
       </c>
-      <c r="AF48" t="s">
+      <c r="AF48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AR48">
+      <c r="AV48">
         <v>1</v>
       </c>
       <c r="BC48" t="s">
@@ -3048,7 +3075,7 @@
       <c r="AC49">
         <v>5</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AG49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AI49" s="1" t="s">
@@ -3301,7 +3328,7 @@
       <c r="AN54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AS54">
+      <c r="AW54">
         <v>1</v>
       </c>
       <c r="BC54" t="s">
@@ -3395,7 +3422,7 @@
       <c r="AP56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AT56">
+      <c r="AX56">
         <v>1</v>
       </c>
       <c r="BC56" t="s">
@@ -3445,7 +3472,7 @@
       <c r="AQ57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AU57">
+      <c r="AY57">
         <v>1</v>
       </c>
       <c r="BC57" t="s">
@@ -3489,7 +3516,7 @@
       <c r="AP58" t="s">
         <v>23</v>
       </c>
-      <c r="AT58">
+      <c r="AX58">
         <v>1</v>
       </c>
       <c r="BC58" t="s">
@@ -3533,7 +3560,7 @@
       <c r="AQ59" t="s">
         <v>24</v>
       </c>
-      <c r="AU59">
+      <c r="AY59">
         <v>1</v>
       </c>
       <c r="BC59" t="s">
@@ -3577,7 +3604,7 @@
       <c r="AP60" t="s">
         <v>26</v>
       </c>
-      <c r="AR60">
+      <c r="AV60">
         <v>1</v>
       </c>
       <c r="BC60" t="s">
@@ -3621,7 +3648,7 @@
       <c r="AQ61" t="s">
         <v>25</v>
       </c>
-      <c r="AS61">
+      <c r="AW61">
         <v>1</v>
       </c>
       <c r="BC61" t="s">
@@ -3642,13 +3669,13 @@
         <v>18</v>
       </c>
       <c r="AP62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR62" t="s">
-        <v>89</v>
-      </c>
       <c r="BA62" s="9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC62" t="s">
         <v>64</v>
@@ -3722,13 +3749,13 @@
         <v>19</v>
       </c>
       <c r="AQ63" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS63" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AS63" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="BB63" s="9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC63" t="s">
         <v>64</v>
@@ -3748,13 +3775,13 @@
         <v>20</v>
       </c>
       <c r="AP64" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC64" t="s">
         <v>65</v>
@@ -3837,15 +3864,15 @@
         <v>21</v>
       </c>
       <c r="AQ65" s="10" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="AR65" s="9"/>
       <c r="AS65" s="10" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="AT65" s="9"/>
       <c r="AU65" s="9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC65" t="s">
         <v>65</v>
@@ -3888,9 +3915,6 @@
       <c r="AD66" t="s">
         <v>92</v>
       </c>
-      <c r="AF66" t="s">
-        <v>92</v>
-      </c>
       <c r="AP66" s="1" t="s">
         <v>87</v>
       </c>
@@ -3909,8 +3933,8 @@
       <c r="BD66">
         <v>22</v>
       </c>
-      <c r="BE66">
-        <v>0</v>
+      <c r="BE66" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">

--- a/Matrices ModelRecAir.xlsx
+++ b/Matrices ModelRecAir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\GitHub\EVA_DSH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405F43A1-0307-4C86-B0F1-0E89C3D14CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBA760-229F-447D-B0C3-410D1F59E154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="117">
   <si>
     <t>mc</t>
   </si>
@@ -423,12 +423,21 @@
   <si>
     <t>-UA_HX*Θo</t>
   </si>
+  <si>
+    <t>m_i l w_0 + Q_la</t>
+  </si>
+  <si>
+    <t>Θ10</t>
+  </si>
+  <si>
+    <t>w10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +492,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -504,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -516,6 +540,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701DF88A-65D7-4165-A88E-01FAFF2E9C69}">
-  <dimension ref="A1:BE93"/>
+  <dimension ref="A1:BE195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE67" sqref="BE67"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC107" sqref="AC107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +926,7 @@
       <c r="X2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AE2">
@@ -2729,7 +2755,7 @@
       <c r="X43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC43" s="3" t="s">
+      <c r="AC43" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AD43">
@@ -3570,7 +3596,7 @@
         <v>15</v>
       </c>
       <c r="BE59" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5091,6 +5117,2783 @@
         <v>67</v>
       </c>
     </row>
+    <row r="99" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C99" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
+      </c>
+      <c r="L99">
+        <v>8</v>
+      </c>
+      <c r="M99">
+        <v>9</v>
+      </c>
+      <c r="N99">
+        <v>10</v>
+      </c>
+      <c r="O99">
+        <v>11</v>
+      </c>
+      <c r="P99">
+        <v>12</v>
+      </c>
+      <c r="Q99">
+        <v>13</v>
+      </c>
+      <c r="R99">
+        <v>14</v>
+      </c>
+      <c r="S99">
+        <v>15</v>
+      </c>
+      <c r="T99">
+        <v>16</v>
+      </c>
+      <c r="U99">
+        <v>17</v>
+      </c>
+      <c r="V99">
+        <v>18</v>
+      </c>
+      <c r="W99">
+        <v>19</v>
+      </c>
+      <c r="X99">
+        <v>20</v>
+      </c>
+      <c r="Y99">
+        <v>21</v>
+      </c>
+      <c r="Z99">
+        <v>22</v>
+      </c>
+      <c r="AA99">
+        <v>23</v>
+      </c>
+      <c r="AB99">
+        <v>24</v>
+      </c>
+      <c r="AC99">
+        <v>25</v>
+      </c>
+      <c r="AD99">
+        <v>26</v>
+      </c>
+      <c r="AG99" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB100">
+        <v>1</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF101">
+        <v>1</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF102">
+        <v>2</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF103">
+        <v>3</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF104">
+        <v>4</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105">
+        <v>-1</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF105">
+        <v>5</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF106">
+        <v>6</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF107">
+        <v>7</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="J108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF108">
+        <v>8</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="L109" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109">
+        <v>-1</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF109">
+        <v>9</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" t="s">
+        <v>20</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF110">
+        <v>10</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>11</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" t="s">
+        <v>22</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF111">
+        <v>11</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>12</v>
+      </c>
+      <c r="N112" t="s">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y112">
+        <v>1</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF112">
+        <v>12</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>13</v>
+      </c>
+      <c r="O113" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF113">
+        <v>13</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>14</v>
+      </c>
+      <c r="P114" t="s">
+        <v>0</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z114">
+        <v>1</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF114">
+        <v>14</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>3</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA115">
+        <v>1</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF115">
+        <v>15</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>16</v>
+      </c>
+      <c r="R116" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z116">
+        <v>1</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF116">
+        <v>16</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>17</v>
+      </c>
+      <c r="S117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA117">
+        <v>1</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF117">
+        <v>17</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>18</v>
+      </c>
+      <c r="R118" t="s">
+        <v>26</v>
+      </c>
+      <c r="X118">
+        <v>1</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF118">
+        <v>18</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <v>19</v>
+      </c>
+      <c r="S119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y119">
+        <v>1</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF119">
+        <v>19</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC120" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF120">
+        <v>20</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121">
+        <v>21</v>
+      </c>
+      <c r="S121" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="7"/>
+      <c r="AA121" s="7"/>
+      <c r="AB121" s="7"/>
+      <c r="AC121" s="7"/>
+      <c r="AD121" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF121">
+        <v>21</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122">
+        <v>22</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S122" s="7"/>
+      <c r="T122" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W122" s="7"/>
+      <c r="X122" s="7"/>
+      <c r="Y122" s="7"/>
+      <c r="Z122" s="7"/>
+      <c r="AA122" s="7"/>
+      <c r="AB122" s="7"/>
+      <c r="AC122" s="7"/>
+      <c r="AD122" s="7"/>
+      <c r="AE122" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF122">
+        <v>22</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123">
+        <v>23</v>
+      </c>
+      <c r="S123" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="7"/>
+      <c r="AA123" s="7"/>
+      <c r="AB123" s="7"/>
+      <c r="AC123" s="7"/>
+      <c r="AD123" s="7"/>
+      <c r="AE123" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF123">
+        <v>23</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
+        <v>92</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S124" s="7"/>
+      <c r="T124" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+      <c r="X124" s="7"/>
+      <c r="Y124" s="7"/>
+      <c r="Z124" s="7"/>
+      <c r="AA124" s="7"/>
+      <c r="AB124" s="7"/>
+      <c r="AC124" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD124" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF124">
+        <v>24</v>
+      </c>
+      <c r="AG124" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125">
+        <v>25</v>
+      </c>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U125" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="7"/>
+      <c r="Y125" s="7"/>
+      <c r="Z125" s="7"/>
+      <c r="AA125" s="7"/>
+      <c r="AB125" s="7"/>
+      <c r="AC125" s="7"/>
+      <c r="AD125" s="7"/>
+      <c r="AE125" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF125">
+        <v>25</v>
+      </c>
+      <c r="AG125" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126">
+        <v>26</v>
+      </c>
+      <c r="AB126">
+        <v>1</v>
+      </c>
+      <c r="AC126">
+        <v>-1</v>
+      </c>
+      <c r="AD126">
+        <v>-1</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF126">
+        <v>26</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C127" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" t="s">
+        <v>44</v>
+      </c>
+      <c r="J127" t="s">
+        <v>45</v>
+      </c>
+      <c r="K127" t="s">
+        <v>46</v>
+      </c>
+      <c r="L127" t="s">
+        <v>47</v>
+      </c>
+      <c r="M127" t="s">
+        <v>48</v>
+      </c>
+      <c r="N127" t="s">
+        <v>49</v>
+      </c>
+      <c r="O127" t="s">
+        <v>50</v>
+      </c>
+      <c r="P127" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>56</v>
+      </c>
+      <c r="R127" t="s">
+        <v>60</v>
+      </c>
+      <c r="S127" t="s">
+        <v>61</v>
+      </c>
+      <c r="T127" t="s">
+        <v>83</v>
+      </c>
+      <c r="U127" t="s">
+        <v>84</v>
+      </c>
+      <c r="V127" t="s">
+        <v>85</v>
+      </c>
+      <c r="W127" t="s">
+        <v>86</v>
+      </c>
+      <c r="X127" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF127" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+      <c r="J132">
+        <v>6</v>
+      </c>
+      <c r="K132">
+        <v>7</v>
+      </c>
+      <c r="L132">
+        <v>8</v>
+      </c>
+      <c r="M132">
+        <v>9</v>
+      </c>
+      <c r="N132">
+        <v>10</v>
+      </c>
+      <c r="O132">
+        <v>11</v>
+      </c>
+      <c r="P132">
+        <v>12</v>
+      </c>
+      <c r="Q132">
+        <v>13</v>
+      </c>
+      <c r="R132">
+        <v>14</v>
+      </c>
+      <c r="S132">
+        <v>15</v>
+      </c>
+      <c r="T132">
+        <v>16</v>
+      </c>
+      <c r="U132">
+        <v>17</v>
+      </c>
+      <c r="V132">
+        <v>18</v>
+      </c>
+      <c r="W132">
+        <v>19</v>
+      </c>
+      <c r="X132">
+        <v>20</v>
+      </c>
+      <c r="Y132">
+        <v>21</v>
+      </c>
+      <c r="Z132">
+        <v>22</v>
+      </c>
+      <c r="AA132">
+        <v>23</v>
+      </c>
+      <c r="AB132">
+        <v>24</v>
+      </c>
+      <c r="AC132">
+        <v>25</v>
+      </c>
+      <c r="AD132">
+        <v>26</v>
+      </c>
+      <c r="AG132" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB133">
+        <v>1</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF134">
+        <v>1</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF135">
+        <v>2</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF136">
+        <v>3</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X137">
+        <v>1</v>
+      </c>
+      <c r="AE137" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF137">
+        <v>4</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF138">
+        <v>5</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE139" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF139">
+        <v>6</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+      <c r="J140" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140">
+        <v>-1</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF140">
+        <v>7</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" t="s">
+        <v>20</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF141">
+        <v>8</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" t="s">
+        <v>22</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF142">
+        <v>9</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="L143" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF143">
+        <v>10</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="M144" s="1"/>
+      <c r="N144" t="s">
+        <v>57</v>
+      </c>
+      <c r="O144">
+        <v>-1</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF144">
+        <v>11</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="N145" t="s">
+        <v>0</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y145">
+        <v>1</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF145">
+        <v>12</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
+      </c>
+      <c r="O146" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE146" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF146">
+        <v>13</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+      <c r="P147" t="s">
+        <v>0</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z147">
+        <v>1</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF147">
+        <v>14</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>3</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA148">
+        <v>1</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF148">
+        <v>15</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>16</v>
+      </c>
+      <c r="R149" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z149">
+        <v>1</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF149">
+        <v>16</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>17</v>
+      </c>
+      <c r="S150" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA150">
+        <v>1</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF150">
+        <v>17</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151">
+        <v>18</v>
+      </c>
+      <c r="R151" t="s">
+        <v>26</v>
+      </c>
+      <c r="X151">
+        <v>1</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF151">
+        <v>18</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>19</v>
+      </c>
+      <c r="S152" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y152">
+        <v>1</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF152">
+        <v>19</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC153" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF153">
+        <v>20</v>
+      </c>
+      <c r="AG153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+      <c r="S154" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T154" s="7"/>
+      <c r="U154" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="V154" s="7"/>
+      <c r="W154" s="7"/>
+      <c r="X154" s="7"/>
+      <c r="Y154" s="7"/>
+      <c r="Z154" s="7"/>
+      <c r="AA154" s="7"/>
+      <c r="AB154" s="7"/>
+      <c r="AC154" s="7"/>
+      <c r="AD154" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AE154" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF154">
+        <v>21</v>
+      </c>
+      <c r="AG154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>65</v>
+      </c>
+      <c r="C155">
+        <v>22</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S155" s="7"/>
+      <c r="T155" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U155" s="7"/>
+      <c r="V155" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W155" s="7"/>
+      <c r="X155" s="7"/>
+      <c r="Y155" s="7"/>
+      <c r="Z155" s="7"/>
+      <c r="AA155" s="7"/>
+      <c r="AB155" s="7"/>
+      <c r="AC155" s="7"/>
+      <c r="AD155" s="7"/>
+      <c r="AE155" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF155">
+        <v>22</v>
+      </c>
+      <c r="AG155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156">
+        <v>23</v>
+      </c>
+      <c r="S156" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T156" s="7"/>
+      <c r="U156" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V156" s="7"/>
+      <c r="W156" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X156" s="7"/>
+      <c r="Y156" s="7"/>
+      <c r="Z156" s="7"/>
+      <c r="AA156" s="7"/>
+      <c r="AB156" s="7"/>
+      <c r="AC156" s="7"/>
+      <c r="AD156" s="7"/>
+      <c r="AE156" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF156">
+        <v>23</v>
+      </c>
+      <c r="AG156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>99</v>
+      </c>
+      <c r="C157">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>92</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S157" s="7"/>
+      <c r="T157" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U157" s="7"/>
+      <c r="V157" s="7"/>
+      <c r="W157" s="7"/>
+      <c r="X157" s="7"/>
+      <c r="Y157" s="7"/>
+      <c r="Z157" s="7"/>
+      <c r="AA157" s="7"/>
+      <c r="AB157" s="7"/>
+      <c r="AC157" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD157" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF157">
+        <v>24</v>
+      </c>
+      <c r="AG157" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>99</v>
+      </c>
+      <c r="C158">
+        <v>25</v>
+      </c>
+      <c r="S158" s="7"/>
+      <c r="T158" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U158" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V158" s="7"/>
+      <c r="W158" s="7"/>
+      <c r="X158" s="7"/>
+      <c r="Y158" s="7"/>
+      <c r="Z158" s="7"/>
+      <c r="AA158" s="7"/>
+      <c r="AB158" s="7"/>
+      <c r="AC158" s="7"/>
+      <c r="AD158" s="7"/>
+      <c r="AE158" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF158">
+        <v>25</v>
+      </c>
+      <c r="AG158" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>99</v>
+      </c>
+      <c r="C159">
+        <v>26</v>
+      </c>
+      <c r="AB159">
+        <v>1</v>
+      </c>
+      <c r="AC159">
+        <v>-1</v>
+      </c>
+      <c r="AD159">
+        <v>-1</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF159">
+        <v>26</v>
+      </c>
+      <c r="AG159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C160" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" t="s">
+        <v>44</v>
+      </c>
+      <c r="J160" t="s">
+        <v>45</v>
+      </c>
+      <c r="K160" t="s">
+        <v>46</v>
+      </c>
+      <c r="L160" t="s">
+        <v>47</v>
+      </c>
+      <c r="M160" t="s">
+        <v>48</v>
+      </c>
+      <c r="N160" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O160" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P160" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>56</v>
+      </c>
+      <c r="R160" t="s">
+        <v>60</v>
+      </c>
+      <c r="S160" t="s">
+        <v>61</v>
+      </c>
+      <c r="T160" t="s">
+        <v>83</v>
+      </c>
+      <c r="U160" t="s">
+        <v>84</v>
+      </c>
+      <c r="V160" t="s">
+        <v>85</v>
+      </c>
+      <c r="W160" t="s">
+        <v>86</v>
+      </c>
+      <c r="X160" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF160" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="C165" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>4</v>
+      </c>
+      <c r="I165">
+        <v>5</v>
+      </c>
+      <c r="J165">
+        <v>6</v>
+      </c>
+      <c r="K165">
+        <v>7</v>
+      </c>
+      <c r="L165">
+        <v>8</v>
+      </c>
+      <c r="M165">
+        <v>9</v>
+      </c>
+      <c r="N165">
+        <v>10</v>
+      </c>
+      <c r="O165">
+        <v>11</v>
+      </c>
+      <c r="P165">
+        <v>12</v>
+      </c>
+      <c r="Q165">
+        <v>13</v>
+      </c>
+      <c r="R165">
+        <v>14</v>
+      </c>
+      <c r="S165">
+        <v>15</v>
+      </c>
+      <c r="T165">
+        <v>16</v>
+      </c>
+      <c r="U165">
+        <v>17</v>
+      </c>
+      <c r="V165">
+        <v>18</v>
+      </c>
+      <c r="W165">
+        <v>19</v>
+      </c>
+      <c r="X165">
+        <v>20</v>
+      </c>
+      <c r="Y165">
+        <v>21</v>
+      </c>
+      <c r="Z165">
+        <v>22</v>
+      </c>
+      <c r="AA165">
+        <v>23</v>
+      </c>
+      <c r="AB165">
+        <v>24</v>
+      </c>
+      <c r="AC165">
+        <v>25</v>
+      </c>
+      <c r="AD165">
+        <v>26</v>
+      </c>
+      <c r="AE165">
+        <v>27</v>
+      </c>
+      <c r="AF165">
+        <v>28</v>
+      </c>
+      <c r="AI165" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD166">
+        <v>1</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH166">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="167" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH167">
+        <v>1</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH168">
+        <v>2</v>
+      </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH169">
+        <v>3</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH170">
+        <v>4</v>
+      </c>
+      <c r="AI170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" t="s">
+        <v>57</v>
+      </c>
+      <c r="I171">
+        <v>-1</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH171">
+        <v>5</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z172">
+        <v>1</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH172">
+        <v>6</v>
+      </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>7</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH173">
+        <v>7</v>
+      </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+      <c r="J174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
+        <v>15</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH174">
+        <v>8</v>
+      </c>
+      <c r="AI174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>9</v>
+      </c>
+      <c r="L175" t="s">
+        <v>18</v>
+      </c>
+      <c r="M175">
+        <v>-1</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH175">
+        <v>9</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L176" t="s">
+        <v>20</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH176">
+        <v>10</v>
+      </c>
+      <c r="AI176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M177" t="s">
+        <v>22</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH177">
+        <v>11</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178">
+        <v>12</v>
+      </c>
+      <c r="N178" t="s">
+        <v>14</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH178">
+        <v>12</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179">
+        <v>13</v>
+      </c>
+      <c r="O179" s="1"/>
+      <c r="P179" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q179">
+        <v>-1</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH179">
+        <v>13</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <v>14</v>
+      </c>
+      <c r="P180" t="s">
+        <v>0</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA180">
+        <v>1</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH180">
+        <v>14</v>
+      </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>3</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH181">
+        <v>15</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>16</v>
+      </c>
+      <c r="R182" t="s">
+        <v>0</v>
+      </c>
+      <c r="T182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB182">
+        <v>1</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH182">
+        <v>16</v>
+      </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>17</v>
+      </c>
+      <c r="S183" t="s">
+        <v>3</v>
+      </c>
+      <c r="U183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC183">
+        <v>1</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH183">
+        <v>17</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184">
+        <v>18</v>
+      </c>
+      <c r="T184" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB184">
+        <v>1</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH184">
+        <v>18</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185">
+        <v>19</v>
+      </c>
+      <c r="U185" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC185">
+        <v>1</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH185">
+        <v>19</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="T186" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z186">
+        <v>1</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH186">
+        <v>20</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187">
+        <v>21</v>
+      </c>
+      <c r="U187" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA187">
+        <v>1</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH187">
+        <v>21</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>64</v>
+      </c>
+      <c r="C188">
+        <v>22</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE188" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH188">
+        <v>22</v>
+      </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>64</v>
+      </c>
+      <c r="C189">
+        <v>23</v>
+      </c>
+      <c r="U189" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="V189" s="7"/>
+      <c r="W189" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X189" s="7"/>
+      <c r="Y189" s="7"/>
+      <c r="Z189" s="7"/>
+      <c r="AA189" s="7"/>
+      <c r="AB189" s="7"/>
+      <c r="AC189" s="7"/>
+      <c r="AD189" s="7"/>
+      <c r="AE189" s="7"/>
+      <c r="AF189" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH189">
+        <v>23</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>65</v>
+      </c>
+      <c r="C190">
+        <v>24</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U190" s="7"/>
+      <c r="V190" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="W190" s="7"/>
+      <c r="X190" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y190" s="7"/>
+      <c r="Z190" s="7"/>
+      <c r="AA190" s="7"/>
+      <c r="AB190" s="7"/>
+      <c r="AC190" s="7"/>
+      <c r="AD190" s="7"/>
+      <c r="AE190" s="7"/>
+      <c r="AF190" s="7"/>
+      <c r="AG190" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH190">
+        <v>24</v>
+      </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>65</v>
+      </c>
+      <c r="C191">
+        <v>25</v>
+      </c>
+      <c r="U191" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="V191" s="7"/>
+      <c r="W191" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="X191" s="7"/>
+      <c r="Y191" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z191" s="7"/>
+      <c r="AA191" s="7"/>
+      <c r="AB191" s="7"/>
+      <c r="AC191" s="7"/>
+      <c r="AD191" s="7"/>
+      <c r="AE191" s="7"/>
+      <c r="AF191" s="7"/>
+      <c r="AG191" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH191">
+        <v>25</v>
+      </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192">
+        <v>26</v>
+      </c>
+      <c r="D192" t="s">
+        <v>92</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U192" s="7"/>
+      <c r="V192" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W192" s="7"/>
+      <c r="X192" s="7"/>
+      <c r="Y192" s="7"/>
+      <c r="Z192" s="7"/>
+      <c r="AA192" s="7"/>
+      <c r="AB192" s="7"/>
+      <c r="AC192" s="7"/>
+      <c r="AD192" s="7"/>
+      <c r="AE192" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF192" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH192">
+        <v>26</v>
+      </c>
+      <c r="AI192" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193">
+        <v>27</v>
+      </c>
+      <c r="U193" s="7"/>
+      <c r="V193" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W193" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X193" s="7"/>
+      <c r="Y193" s="7"/>
+      <c r="Z193" s="7"/>
+      <c r="AA193" s="7"/>
+      <c r="AB193" s="7"/>
+      <c r="AC193" s="7"/>
+      <c r="AD193" s="7"/>
+      <c r="AE193" s="7"/>
+      <c r="AF193" s="7"/>
+      <c r="AG193" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH193">
+        <v>27</v>
+      </c>
+      <c r="AI193" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="194" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194">
+        <v>28</v>
+      </c>
+      <c r="AD194">
+        <v>1</v>
+      </c>
+      <c r="AE194">
+        <v>-1</v>
+      </c>
+      <c r="AF194">
+        <v>-1</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH194">
+        <v>28</v>
+      </c>
+      <c r="AI194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="C195" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D195" t="s">
+        <v>39</v>
+      </c>
+      <c r="E195" t="s">
+        <v>40</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H195" t="s">
+        <v>43</v>
+      </c>
+      <c r="I195" t="s">
+        <v>44</v>
+      </c>
+      <c r="J195" t="s">
+        <v>45</v>
+      </c>
+      <c r="K195" t="s">
+        <v>46</v>
+      </c>
+      <c r="L195" t="s">
+        <v>47</v>
+      </c>
+      <c r="M195" t="s">
+        <v>48</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O195" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P195" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>56</v>
+      </c>
+      <c r="R195" t="s">
+        <v>60</v>
+      </c>
+      <c r="S195" t="s">
+        <v>61</v>
+      </c>
+      <c r="T195" t="s">
+        <v>83</v>
+      </c>
+      <c r="U195" t="s">
+        <v>84</v>
+      </c>
+      <c r="V195" t="s">
+        <v>85</v>
+      </c>
+      <c r="W195" t="s">
+        <v>86</v>
+      </c>
+      <c r="X195" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG195" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Matrices ModelRecAir.xlsx
+++ b/Matrices ModelRecAir.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\GitHub\EVA_DSH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Desktop\ZHAW\S2\EVA_DSH\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBA760-229F-447D-B0C3-410D1F59E154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEFF748-FF4E-4529-BFEB-4F28F71901AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
+    <workbookView xWindow="23535" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{9A57FA78-001C-43EB-8464-8033951E1EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="116">
   <si>
     <t>mc</t>
   </si>
@@ -338,12 +338,6 @@
   </si>
   <si>
     <t>(1-b_HX)mc</t>
-  </si>
-  <si>
-    <t>-b_HX</t>
-  </si>
-  <si>
-    <t>-(1-b_HX)</t>
   </si>
   <si>
     <t>UA_HX</t>
@@ -432,12 +426,15 @@
   <si>
     <t>w10</t>
   </si>
+  <si>
+    <t>dry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,13 +497,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -528,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,7 +531,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,19 +845,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701DF88A-65D7-4165-A88E-01FAFF2E9C69}">
-  <dimension ref="A1:BE195"/>
+  <dimension ref="A1:DP195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC107" sqref="AC107"/>
+    <sheetView tabSelected="1" topLeftCell="BK13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BM33" sqref="BM33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="7.77734375" customWidth="1"/>
+    <col min="1" max="24" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
@@ -926,7 +915,10 @@
       <c r="X2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AC2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AE2">
@@ -1001,8 +993,176 @@
       <c r="BD2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>2</v>
+      </c>
+      <c r="BL2">
+        <v>3</v>
+      </c>
+      <c r="BM2">
+        <v>4</v>
+      </c>
+      <c r="BN2">
+        <v>5</v>
+      </c>
+      <c r="BO2">
+        <v>6</v>
+      </c>
+      <c r="BP2">
+        <v>7</v>
+      </c>
+      <c r="BQ2">
+        <v>8</v>
+      </c>
+      <c r="BR2">
+        <v>9</v>
+      </c>
+      <c r="BS2">
+        <v>10</v>
+      </c>
+      <c r="BT2">
+        <v>11</v>
+      </c>
+      <c r="BU2">
+        <v>12</v>
+      </c>
+      <c r="BV2">
+        <v>13</v>
+      </c>
+      <c r="BW2">
+        <v>14</v>
+      </c>
+      <c r="BX2">
+        <v>15</v>
+      </c>
+      <c r="BY2">
+        <v>16</v>
+      </c>
+      <c r="BZ2">
+        <v>17</v>
+      </c>
+      <c r="CA2">
+        <v>18</v>
+      </c>
+      <c r="CB2">
+        <v>19</v>
+      </c>
+      <c r="CC2">
+        <v>20</v>
+      </c>
+      <c r="CD2">
+        <v>21</v>
+      </c>
+      <c r="CE2">
+        <v>22</v>
+      </c>
+      <c r="CF2">
+        <v>23</v>
+      </c>
+      <c r="CG2">
+        <v>24</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CN2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>2</v>
+      </c>
+      <c r="CR2">
+        <v>3</v>
+      </c>
+      <c r="CS2">
+        <v>4</v>
+      </c>
+      <c r="CT2">
+        <v>5</v>
+      </c>
+      <c r="CU2">
+        <v>6</v>
+      </c>
+      <c r="CV2">
+        <v>7</v>
+      </c>
+      <c r="CW2">
+        <v>8</v>
+      </c>
+      <c r="CX2">
+        <v>9</v>
+      </c>
+      <c r="CY2">
+        <v>10</v>
+      </c>
+      <c r="CZ2">
+        <v>11</v>
+      </c>
+      <c r="DA2">
+        <v>12</v>
+      </c>
+      <c r="DB2">
+        <v>13</v>
+      </c>
+      <c r="DC2">
+        <v>14</v>
+      </c>
+      <c r="DD2">
+        <v>15</v>
+      </c>
+      <c r="DE2">
+        <v>16</v>
+      </c>
+      <c r="DF2">
+        <v>17</v>
+      </c>
+      <c r="DG2">
+        <v>18</v>
+      </c>
+      <c r="DH2">
+        <v>19</v>
+      </c>
+      <c r="DI2">
+        <v>20</v>
+      </c>
+      <c r="DJ2">
+        <v>21</v>
+      </c>
+      <c r="DK2">
+        <v>22</v>
+      </c>
+      <c r="DL2">
+        <v>23</v>
+      </c>
+      <c r="DM2">
+        <v>24</v>
+      </c>
+      <c r="DP2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1027,17 +1187,65 @@
       <c r="AD3">
         <v>0</v>
       </c>
-      <c r="AF3">
-        <v>-1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>63</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM3">
+        <v>1</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>63</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1062,20 +1270,56 @@
       <c r="AD4">
         <v>1</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>-1</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>63</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>63</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>63</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1103,17 +1347,74 @@
       <c r="AD5">
         <v>2</v>
       </c>
-      <c r="AG5" t="s">
-        <v>0</v>
+      <c r="AE5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="AQ5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC5">
         <v>2</v>
       </c>
-      <c r="BD5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>2</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO5">
+        <v>2</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1138,17 +1439,74 @@
       <c r="AD6">
         <v>3</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AF6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC6">
         <v>3</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>3</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI6">
+        <v>3</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN6">
+        <v>3</v>
+      </c>
+      <c r="CP6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CR6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO6">
+        <v>3</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1179,20 +1537,77 @@
       <c r="AD7">
         <v>4</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AS7">
-        <v>1</v>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>4</v>
       </c>
       <c r="BD7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH7">
+        <v>4</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI7">
+        <v>4</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN7">
+        <v>4</v>
+      </c>
+      <c r="CQ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DI7">
+        <v>1</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>5</v>
+      </c>
+      <c r="DO7">
+        <v>4</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1217,17 +1632,66 @@
       <c r="AD8">
         <v>5</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="BB8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC8">
+        <v>5</v>
+      </c>
       <c r="BD8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH8">
+        <v>5</v>
+      </c>
+      <c r="BL8" s="1"/>
+      <c r="BM8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN8">
+        <v>-1</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI8">
+        <v>5</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN8">
+        <v>5</v>
+      </c>
+      <c r="CR8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>5</v>
+      </c>
+      <c r="DO8">
+        <v>5</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1267,11 +1731,68 @@
       <c r="AL9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="BB9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC9">
+        <v>6</v>
+      </c>
       <c r="BD9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG9" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH9">
+        <v>6</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CC9">
+        <v>1</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI9">
+        <v>6</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN9">
+        <v>6</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>15</v>
+      </c>
+      <c r="CU9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>6</v>
+      </c>
+      <c r="DO9">
+        <v>6</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1305,11 +1826,59 @@
       <c r="AL10">
         <v>-1</v>
       </c>
+      <c r="BB10" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
       <c r="BD10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG10" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH10">
+        <v>7</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI10">
+        <v>7</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN10">
+        <v>7</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CV10">
+        <v>-1</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>6</v>
+      </c>
+      <c r="DO10">
+        <v>7</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1346,11 +1915,68 @@
       <c r="AM11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="BB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC11">
+        <v>8</v>
+      </c>
       <c r="BD11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH11">
+        <v>8</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI11">
+        <v>8</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN11">
+        <v>8</v>
+      </c>
+      <c r="CS11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>20</v>
+      </c>
+      <c r="CW11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO11">
+        <v>8</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1384,11 +2010,62 @@
       <c r="AN12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="BB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC12">
+        <v>9</v>
+      </c>
       <c r="BD12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH12">
+        <v>9</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR12">
+        <v>-1</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI12">
+        <v>9</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN12">
+        <v>9</v>
+      </c>
+      <c r="CT12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO12">
+        <v>9</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1422,14 +2099,71 @@
       <c r="AO13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AT13">
-        <v>1</v>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC13">
+        <v>10</v>
       </c>
       <c r="BD13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG13" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH13">
+        <v>10</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI13">
+        <v>10</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CN13">
+        <v>10</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>14</v>
+      </c>
+      <c r="CX13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CY13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CZ13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>27</v>
+      </c>
+      <c r="DO13">
+        <v>10</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1463,11 +2197,63 @@
       <c r="AP14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="BB14" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC14">
+        <v>11</v>
+      </c>
       <c r="BD14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH14">
+        <v>11</v>
+      </c>
+      <c r="BP14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI14">
+        <v>11</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CN14">
+        <v>11</v>
+      </c>
+      <c r="CX14" s="1"/>
+      <c r="CY14" t="s">
+        <v>57</v>
+      </c>
+      <c r="CZ14">
+        <v>-1</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>27</v>
+      </c>
+      <c r="DO14">
+        <v>11</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1498,14 +2284,68 @@
       <c r="AQ15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AU15">
-        <v>1</v>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC15">
+        <v>12</v>
       </c>
       <c r="BD15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH15">
+        <v>12</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD15">
+        <v>1</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI15">
+        <v>12</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN15">
+        <v>12</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DJ15">
+        <v>1</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>8</v>
+      </c>
+      <c r="DO15">
+        <v>12</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1536,14 +2376,62 @@
       <c r="AR16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AV16">
-        <v>1</v>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC16">
+        <v>13</v>
       </c>
       <c r="BD16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG16" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH16">
+        <v>13</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI16">
+        <v>13</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN16">
+        <v>13</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>8</v>
+      </c>
+      <c r="DO16">
+        <v>13</v>
+      </c>
+      <c r="DP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1571,14 +2459,68 @@
       <c r="AQ17" t="s">
         <v>23</v>
       </c>
-      <c r="AU17">
-        <v>1</v>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC17">
+        <v>14</v>
       </c>
       <c r="BD17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG17" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH17">
+        <v>14</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE17">
+        <v>1</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI17">
+        <v>14</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN17">
+        <v>14</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DK17">
+        <v>1</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO17">
+        <v>14</v>
+      </c>
+      <c r="DP17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1606,14 +2548,68 @@
       <c r="AR18" t="s">
         <v>24</v>
       </c>
-      <c r="AV18">
-        <v>1</v>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC18">
+        <v>15</v>
       </c>
       <c r="BD18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH18">
+        <v>15</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CF18">
+        <v>1</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI18">
+        <v>15</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN18">
+        <v>15</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DL18">
+        <v>1</v>
+      </c>
+      <c r="DN18" t="s">
+        <v>9</v>
+      </c>
+      <c r="DO18">
+        <v>15</v>
+      </c>
+      <c r="DP18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>39</v>
       </c>
@@ -1671,14 +2667,62 @@
       <c r="AQ19" t="s">
         <v>26</v>
       </c>
-      <c r="AS19">
-        <v>1</v>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC19">
+        <v>16</v>
       </c>
       <c r="BD19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG19" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH19">
+        <v>16</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>23</v>
+      </c>
+      <c r="CE19">
+        <v>1</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI19">
+        <v>16</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>34</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN19">
+        <v>16</v>
+      </c>
+      <c r="DC19" t="s">
+        <v>23</v>
+      </c>
+      <c r="DK19">
+        <v>1</v>
+      </c>
+      <c r="DN19" t="s">
+        <v>10</v>
+      </c>
+      <c r="DO19">
+        <v>16</v>
+      </c>
+      <c r="DP19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC20" t="s">
         <v>11</v>
       </c>
@@ -1688,14 +2732,62 @@
       <c r="AR20" t="s">
         <v>25</v>
       </c>
-      <c r="AT20">
-        <v>1</v>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC20">
+        <v>17</v>
       </c>
       <c r="BD20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG20" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH20">
+        <v>17</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF20">
+        <v>1</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI20">
+        <v>17</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>112</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN20">
+        <v>17</v>
+      </c>
+      <c r="DD20" t="s">
+        <v>24</v>
+      </c>
+      <c r="DL20">
+        <v>1</v>
+      </c>
+      <c r="DN20" t="s">
+        <v>10</v>
+      </c>
+      <c r="DO20">
+        <v>17</v>
+      </c>
+      <c r="DP20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1766,19 +2858,67 @@
         <v>18</v>
       </c>
       <c r="AQ21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS21" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA21">
-        <v>1</v>
+      <c r="BA21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC21">
+        <v>18</v>
       </c>
       <c r="BD21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG21" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH21">
+        <v>18</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC21">
+        <v>1</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI21">
+        <v>18</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN21">
+        <v>18</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>26</v>
+      </c>
+      <c r="DI21">
+        <v>1</v>
+      </c>
+      <c r="DN21" t="s">
+        <v>11</v>
+      </c>
+      <c r="DO21">
+        <v>18</v>
+      </c>
+      <c r="DP21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1803,17 +2943,69 @@
       <c r="AD22">
         <v>19</v>
       </c>
-      <c r="AR22">
-        <v>-1</v>
-      </c>
-      <c r="AT22">
-        <v>1</v>
+      <c r="AR22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC22">
+        <v>19</v>
       </c>
       <c r="BD22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG22" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH22">
+        <v>19</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>25</v>
+      </c>
+      <c r="CD22">
+        <v>1</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI22">
+        <v>19</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN22">
+        <v>19</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>25</v>
+      </c>
+      <c r="DJ22">
+        <v>1</v>
+      </c>
+      <c r="DN22" t="s">
+        <v>11</v>
+      </c>
+      <c r="DO22">
+        <v>19</v>
+      </c>
+      <c r="DP22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1839,19 +3031,77 @@
         <v>20</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU23">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AV23" s="7"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC23">
+        <v>20</v>
       </c>
       <c r="BD23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG23" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH23">
+        <v>20</v>
+      </c>
+      <c r="BW23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CG23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>64</v>
+      </c>
+      <c r="CI23">
+        <v>20</v>
+      </c>
+      <c r="CJ23">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>64</v>
+      </c>
+      <c r="CN23">
+        <v>20</v>
+      </c>
+      <c r="DC23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DM23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="DN23" t="s">
+        <v>64</v>
+      </c>
+      <c r="DO23">
+        <v>20</v>
+      </c>
+      <c r="DP23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1879,17 +3129,87 @@
       <c r="AD24">
         <v>21</v>
       </c>
-      <c r="AR24">
+      <c r="AR24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7">
         <v>-1</v>
       </c>
-      <c r="AV24">
-        <v>1</v>
+      <c r="BA24" s="9"/>
+      <c r="BB24" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC24">
+        <v>21</v>
       </c>
       <c r="BD24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG24" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH24">
+        <v>21</v>
+      </c>
+      <c r="BX24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY24" s="7"/>
+      <c r="BZ24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="7"/>
+      <c r="CC24" s="7"/>
+      <c r="CD24" s="7"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" t="s">
+        <v>64</v>
+      </c>
+      <c r="CI24">
+        <v>21</v>
+      </c>
+      <c r="CJ24">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>64</v>
+      </c>
+      <c r="CN24">
+        <v>21</v>
+      </c>
+      <c r="DD24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="DE24" s="7"/>
+      <c r="DF24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="DG24" s="7"/>
+      <c r="DH24" s="7"/>
+      <c r="DI24" s="7"/>
+      <c r="DJ24" s="7"/>
+      <c r="DK24" s="7"/>
+      <c r="DL24" s="7"/>
+      <c r="DM24" s="9"/>
+      <c r="DN24" t="s">
+        <v>64</v>
+      </c>
+      <c r="DO24">
+        <v>21</v>
+      </c>
+      <c r="DP24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1915,10 +3235,7 @@
         <v>22</v>
       </c>
       <c r="AE25" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ25" s="1" t="s">
         <v>87</v>
@@ -1926,14 +3243,84 @@
       <c r="AS25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BA25">
+      <c r="BA25" s="9">
         <v>2</v>
       </c>
-      <c r="BD25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BB25" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC25">
+        <v>22</v>
+      </c>
+      <c r="BD25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH25">
+        <v>22</v>
+      </c>
+      <c r="BW25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX25" s="7"/>
+      <c r="BY25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ25" s="7"/>
+      <c r="CA25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="CB25" s="7"/>
+      <c r="CC25" s="7"/>
+      <c r="CD25" s="7"/>
+      <c r="CE25" s="7"/>
+      <c r="CF25" s="7"/>
+      <c r="CG25" s="9"/>
+      <c r="CH25" t="s">
+        <v>65</v>
+      </c>
+      <c r="CI25">
+        <v>22</v>
+      </c>
+      <c r="CJ25">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>65</v>
+      </c>
+      <c r="CN25">
+        <v>22</v>
+      </c>
+      <c r="DC25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DD25" s="7"/>
+      <c r="DE25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="DF25" s="7"/>
+      <c r="DG25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="DH25" s="7"/>
+      <c r="DI25" s="7"/>
+      <c r="DJ25" s="7"/>
+      <c r="DK25" s="7"/>
+      <c r="DL25" s="7"/>
+      <c r="DM25" s="9"/>
+      <c r="DN25" t="s">
+        <v>65</v>
+      </c>
+      <c r="DO25">
+        <v>22</v>
+      </c>
+      <c r="DP25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2030,8 +3417,70 @@
       <c r="BA26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG26" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH26">
+        <v>23</v>
+      </c>
+      <c r="BX26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY26" s="7"/>
+      <c r="BZ26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA26" s="7"/>
+      <c r="CB26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="CC26" s="7"/>
+      <c r="CD26" s="7"/>
+      <c r="CE26" s="7"/>
+      <c r="CF26" s="7"/>
+      <c r="CG26" s="9"/>
+      <c r="CH26" t="s">
+        <v>65</v>
+      </c>
+      <c r="CI26">
+        <v>23</v>
+      </c>
+      <c r="CJ26">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>65</v>
+      </c>
+      <c r="CN26">
+        <v>23</v>
+      </c>
+      <c r="DD26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="DE26" s="7"/>
+      <c r="DF26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG26" s="7"/>
+      <c r="DH26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="DI26" s="7"/>
+      <c r="DJ26" s="7"/>
+      <c r="DK26" s="7"/>
+      <c r="DL26" s="7"/>
+      <c r="DM26" s="9"/>
+      <c r="DN26" t="s">
+        <v>65</v>
+      </c>
+      <c r="DO26">
+        <v>23</v>
+      </c>
+      <c r="DP26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2050,8 +3499,78 @@
       <c r="X27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG27" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH27">
+        <v>24</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX27" s="7"/>
+      <c r="BY27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ27" s="7"/>
+      <c r="CA27" s="7"/>
+      <c r="CB27" s="7"/>
+      <c r="CC27" s="7"/>
+      <c r="CD27" s="7"/>
+      <c r="CE27" s="7"/>
+      <c r="CF27" s="7"/>
+      <c r="CG27" s="9">
+        <v>2</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI27">
+        <v>24</v>
+      </c>
+      <c r="CJ27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>97</v>
+      </c>
+      <c r="CN27">
+        <v>24</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>90</v>
+      </c>
+      <c r="DC27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD27" s="7"/>
+      <c r="DE27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="DF27" s="7"/>
+      <c r="DG27" s="7"/>
+      <c r="DH27" s="7"/>
+      <c r="DI27" s="7"/>
+      <c r="DJ27" s="7"/>
+      <c r="DK27" s="7"/>
+      <c r="DL27" s="7"/>
+      <c r="DM27" s="9">
+        <v>2</v>
+      </c>
+      <c r="DN27" t="s">
+        <v>97</v>
+      </c>
+      <c r="DO27">
+        <v>24</v>
+      </c>
+      <c r="DP27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2106,8 +3625,172 @@
       <c r="BA28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>49</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>51</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>52</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>53</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>54</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>67</v>
+      </c>
+      <c r="CH28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ28" s="7"/>
+      <c r="CN28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>39</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>40</v>
+      </c>
+      <c r="CQ28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="CR28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="CS28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>44</v>
+      </c>
+      <c r="CU28" t="s">
+        <v>45</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>47</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>48</v>
+      </c>
+      <c r="CY28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="CZ28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="DA28" t="s">
+        <v>55</v>
+      </c>
+      <c r="DB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="DC28" t="s">
+        <v>60</v>
+      </c>
+      <c r="DD28" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE28" t="s">
+        <v>83</v>
+      </c>
+      <c r="DF28" t="s">
+        <v>84</v>
+      </c>
+      <c r="DG28" t="s">
+        <v>85</v>
+      </c>
+      <c r="DH28" t="s">
+        <v>86</v>
+      </c>
+      <c r="DI28" t="s">
+        <v>51</v>
+      </c>
+      <c r="DJ28" t="s">
+        <v>52</v>
+      </c>
+      <c r="DK28" t="s">
+        <v>53</v>
+      </c>
+      <c r="DL28" t="s">
+        <v>54</v>
+      </c>
+      <c r="DM28" t="s">
+        <v>67</v>
+      </c>
+      <c r="DO28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DP28" s="7"/>
+    </row>
+    <row r="29" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +3837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2194,7 +3877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2233,7 +3916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:120" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2272,7 +3955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2304,8 +3987,98 @@
       <c r="AT33" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL33" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>2</v>
+      </c>
+      <c r="BQ33">
+        <v>3</v>
+      </c>
+      <c r="BR33">
+        <v>4</v>
+      </c>
+      <c r="BS33">
+        <v>5</v>
+      </c>
+      <c r="BT33">
+        <v>6</v>
+      </c>
+      <c r="BU33">
+        <v>7</v>
+      </c>
+      <c r="BV33">
+        <v>8</v>
+      </c>
+      <c r="BW33">
+        <v>9</v>
+      </c>
+      <c r="BX33">
+        <v>10</v>
+      </c>
+      <c r="BY33">
+        <v>11</v>
+      </c>
+      <c r="BZ33">
+        <v>12</v>
+      </c>
+      <c r="CA33">
+        <v>13</v>
+      </c>
+      <c r="CB33">
+        <v>14</v>
+      </c>
+      <c r="CC33">
+        <v>15</v>
+      </c>
+      <c r="CD33">
+        <v>16</v>
+      </c>
+      <c r="CE33">
+        <v>17</v>
+      </c>
+      <c r="CF33">
+        <v>18</v>
+      </c>
+      <c r="CG33">
+        <v>19</v>
+      </c>
+      <c r="CH33">
+        <v>20</v>
+      </c>
+      <c r="CI33">
+        <v>21</v>
+      </c>
+      <c r="CJ33">
+        <v>22</v>
+      </c>
+      <c r="CK33">
+        <v>23</v>
+      </c>
+      <c r="CL33">
+        <v>24</v>
+      </c>
+      <c r="CM33">
+        <v>25</v>
+      </c>
+      <c r="CN33">
+        <v>26</v>
+      </c>
+      <c r="CQ33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2342,8 +4115,29 @@
       <c r="AT34" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL34" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN34">
+        <v>1</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>63</v>
+      </c>
+      <c r="CP34">
+        <v>0</v>
+      </c>
+      <c r="CQ34" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2380,8 +4174,26 @@
       <c r="AT35" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL35" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="CO35" t="s">
+        <v>63</v>
+      </c>
+      <c r="CP35">
+        <v>1</v>
+      </c>
+      <c r="CQ35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2422,8 +4234,32 @@
       <c r="AT36" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM36">
+        <v>2</v>
+      </c>
+      <c r="BN36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP36">
+        <v>2</v>
+      </c>
+      <c r="CQ36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2463,8 +4299,32 @@
       <c r="AQ37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM37">
+        <v>3</v>
+      </c>
+      <c r="BO37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP37">
+        <v>3</v>
+      </c>
+      <c r="CQ37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2483,8 +4343,35 @@
       <c r="X38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL38" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM38">
+        <v>4</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO38" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP38">
+        <v>4</v>
+      </c>
+      <c r="CQ38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2578,9 +4465,56 @@
       <c r="BB39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL39" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM39">
+        <v>5</v>
+      </c>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS39">
+        <v>-1</v>
+      </c>
+      <c r="CO39" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP39">
+        <v>5</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM40">
+        <v>6</v>
+      </c>
+      <c r="BR40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ40">
+        <v>1</v>
+      </c>
+      <c r="CO40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP40">
+        <v>6</v>
+      </c>
+      <c r="CQ40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>39</v>
       </c>
@@ -2689,9 +4623,58 @@
       <c r="AU41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM41">
+        <v>7</v>
+      </c>
+      <c r="BS41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP41">
+        <v>7</v>
+      </c>
+      <c r="CQ41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BL42" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM42">
+        <v>8</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO42" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP42">
+        <v>8</v>
+      </c>
+      <c r="CQ42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
@@ -2836,8 +4819,29 @@
       <c r="BE43" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM43">
+        <v>9</v>
+      </c>
+      <c r="BV43" t="s">
+        <v>18</v>
+      </c>
+      <c r="BW43">
+        <v>-1</v>
+      </c>
+      <c r="CO43" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP43">
+        <v>9</v>
+      </c>
+      <c r="CQ43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2878,10 +4882,34 @@
         <v>0</v>
       </c>
       <c r="BE44" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM44">
+        <v>10</v>
+      </c>
+      <c r="BT44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>20</v>
+      </c>
+      <c r="BX44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CO44" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP44">
+        <v>10</v>
+      </c>
+      <c r="CQ44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2919,10 +4947,34 @@
         <v>1</v>
       </c>
       <c r="BE45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM45">
+        <v>11</v>
+      </c>
+      <c r="BU45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW45" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO45" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP45">
+        <v>11</v>
+      </c>
+      <c r="CQ45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2957,13 +5009,13 @@
         <v>2</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AP46" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BC46" t="s">
         <v>1</v>
@@ -2974,8 +5026,35 @@
       <c r="BE46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL46" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM46">
+        <v>12</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP46">
+        <v>12</v>
+      </c>
+      <c r="CQ46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -3005,13 +5084,13 @@
         <v>3</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AQ47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BC47" t="s">
         <v>1</v>
@@ -3022,8 +5101,30 @@
       <c r="BE47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL47" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM47">
+        <v>13</v>
+      </c>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA47">
+        <v>-1</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP47">
+        <v>13</v>
+      </c>
+      <c r="CQ47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:95" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3072,8 +5173,32 @@
       <c r="BE48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL48" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM48">
+        <v>14</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CK48">
+        <v>1</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP48">
+        <v>14</v>
+      </c>
+      <c r="CQ48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -3116,8 +5241,29 @@
       <c r="BE49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL49" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM49">
+        <v>15</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP49">
+        <v>15</v>
+      </c>
+      <c r="CQ49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3172,8 +5318,32 @@
       <c r="BE50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL50" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM50">
+        <v>16</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL50">
+        <v>1</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP50">
+        <v>16</v>
+      </c>
+      <c r="CQ50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3216,8 +5386,32 @@
       <c r="BE51" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL51" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM51">
+        <v>17</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM51">
+        <v>1</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP51">
+        <v>17</v>
+      </c>
+      <c r="CQ51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3266,8 +5460,29 @@
       <c r="BE52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL52" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM52">
+        <v>18</v>
+      </c>
+      <c r="CD52" t="s">
+        <v>23</v>
+      </c>
+      <c r="CL52">
+        <v>1</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP52">
+        <v>18</v>
+      </c>
+      <c r="CQ52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3316,8 +5531,29 @@
       <c r="BE53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL53" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM53">
+        <v>19</v>
+      </c>
+      <c r="CE53" t="s">
+        <v>24</v>
+      </c>
+      <c r="CM53">
+        <v>1</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP53">
+        <v>19</v>
+      </c>
+      <c r="CQ53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -3366,8 +5602,29 @@
       <c r="BE54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL54" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM54">
+        <v>20</v>
+      </c>
+      <c r="CD54" t="s">
+        <v>26</v>
+      </c>
+      <c r="CJ54">
+        <v>1</v>
+      </c>
+      <c r="CO54" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP54">
+        <v>20</v>
+      </c>
+      <c r="CQ54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3410,8 +5667,29 @@
       <c r="BE55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL55" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM55">
+        <v>21</v>
+      </c>
+      <c r="CE55" t="s">
+        <v>25</v>
+      </c>
+      <c r="CK55">
+        <v>1</v>
+      </c>
+      <c r="CO55" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP55">
+        <v>21</v>
+      </c>
+      <c r="CQ55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3460,8 +5738,32 @@
       <c r="BE56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL56" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM56">
+        <v>22</v>
+      </c>
+      <c r="CD56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN56" s="9">
+        <v>-1</v>
+      </c>
+      <c r="CO56" t="s">
+        <v>64</v>
+      </c>
+      <c r="CP56">
+        <v>22</v>
+      </c>
+      <c r="CQ56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3510,8 +5812,37 @@
       <c r="BE57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL57" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM57">
+        <v>23</v>
+      </c>
+      <c r="CE57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="CF57" s="7"/>
+      <c r="CG57" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH57" s="7"/>
+      <c r="CI57" s="7"/>
+      <c r="CJ57" s="7"/>
+      <c r="CK57" s="7"/>
+      <c r="CL57" s="7"/>
+      <c r="CM57" s="7"/>
+      <c r="CN57" s="9"/>
+      <c r="CO57" t="s">
+        <v>64</v>
+      </c>
+      <c r="CP57">
+        <v>23</v>
+      </c>
+      <c r="CQ57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3554,8 +5885,40 @@
       <c r="BE58" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL58" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM58">
+        <v>24</v>
+      </c>
+      <c r="CD58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE58" s="7"/>
+      <c r="CF58" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG58" s="7"/>
+      <c r="CH58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="CI58" s="7"/>
+      <c r="CJ58" s="7"/>
+      <c r="CK58" s="7"/>
+      <c r="CL58" s="7"/>
+      <c r="CM58" s="7"/>
+      <c r="CN58" s="9"/>
+      <c r="CO58" t="s">
+        <v>65</v>
+      </c>
+      <c r="CP58">
+        <v>24</v>
+      </c>
+      <c r="CQ58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3596,10 +5959,41 @@
         <v>15</v>
       </c>
       <c r="BE59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="BL59" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM59">
+        <v>25</v>
+      </c>
+      <c r="CE59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF59" s="7"/>
+      <c r="CG59" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="CH59" s="7"/>
+      <c r="CI59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="CJ59" s="7"/>
+      <c r="CK59" s="7"/>
+      <c r="CL59" s="7"/>
+      <c r="CM59" s="7"/>
+      <c r="CN59" s="9"/>
+      <c r="CO59" t="s">
+        <v>65</v>
+      </c>
+      <c r="CP59">
+        <v>25</v>
+      </c>
+      <c r="CQ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3642,8 +6036,43 @@
       <c r="BE60" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BL60" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM60">
+        <v>26</v>
+      </c>
+      <c r="BN60" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE60" s="7"/>
+      <c r="CF60" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG60" s="7"/>
+      <c r="CH60" s="7"/>
+      <c r="CI60" s="7"/>
+      <c r="CJ60" s="7"/>
+      <c r="CK60" s="7"/>
+      <c r="CL60" s="7"/>
+      <c r="CM60" s="7"/>
+      <c r="CN60" s="9">
+        <v>2</v>
+      </c>
+      <c r="CO60" t="s">
+        <v>97</v>
+      </c>
+      <c r="CP60">
+        <v>26</v>
+      </c>
+      <c r="CQ60" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3686,8 +6115,97 @@
       <c r="BE61" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="62" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BM61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN61" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO61" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR61" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS61" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT61" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU61" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV61" t="s">
+        <v>47</v>
+      </c>
+      <c r="BW61" t="s">
+        <v>48</v>
+      </c>
+      <c r="BX61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BZ61" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA61" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB61" t="s">
+        <v>60</v>
+      </c>
+      <c r="CC61" t="s">
+        <v>61</v>
+      </c>
+      <c r="CD61" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE61" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF61" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG61" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH61" t="s">
+        <v>113</v>
+      </c>
+      <c r="CI61" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ61" t="s">
+        <v>51</v>
+      </c>
+      <c r="CK61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CL61" t="s">
+        <v>53</v>
+      </c>
+      <c r="CM61" t="s">
+        <v>54</v>
+      </c>
+      <c r="CN61" t="s">
+        <v>67</v>
+      </c>
+      <c r="CO61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CP61" s="7"/>
+      <c r="CS61" s="7"/>
+    </row>
+    <row r="62" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB62" t="s">
         <v>64</v>
       </c>
@@ -3713,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>39</v>
       </c>
@@ -3775,10 +6293,10 @@
         <v>19</v>
       </c>
       <c r="AQ63" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AS63" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BB63" s="9">
         <v>-1</v>
@@ -3793,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:97" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB64" t="s">
         <v>65</v>
       </c>
@@ -3801,10 +6319,10 @@
         <v>20</v>
       </c>
       <c r="AP64" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AT64">
         <v>-1</v>
@@ -3819,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>62</v>
       </c>
@@ -3890,11 +6408,11 @@
         <v>21</v>
       </c>
       <c r="AQ65" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AR65" s="9"/>
       <c r="AS65" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AT65" s="9"/>
       <c r="AU65" s="9">
@@ -3910,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3933,13 +6451,13 @@
         <v>31</v>
       </c>
       <c r="AB66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC66">
         <v>22</v>
       </c>
       <c r="AD66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AP66" s="1" t="s">
         <v>87</v>
@@ -3954,16 +6472,16 @@
         <v>2</v>
       </c>
       <c r="BC66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BD66">
         <v>22</v>
       </c>
       <c r="BE66" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -3986,28 +6504,28 @@
         <v>32</v>
       </c>
       <c r="AB67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC67">
         <v>23</v>
       </c>
       <c r="AR67" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AS67" s="9">
         <v>-1</v>
       </c>
       <c r="BC67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BD67">
         <v>23</v>
       </c>
       <c r="BE67" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -4036,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="AB68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC68">
         <v>24</v>
@@ -4051,7 +6569,7 @@
         <v>-1</v>
       </c>
       <c r="BC68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BD68">
         <v>24</v>
@@ -4060,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -4162,7 +6680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -4188,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -4250,7 +6768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -4279,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -4332,7 +6850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -4358,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="AH74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AI74">
         <v>8</v>
@@ -4372,7 +6890,7 @@
       </c>
       <c r="AU74" s="7"/>
     </row>
-    <row r="75" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="AH75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AI75">
         <v>2</v>
@@ -4415,7 +6933,7 @@
       </c>
       <c r="AU75" s="7"/>
     </row>
-    <row r="76" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -4445,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="AH76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AI76">
         <v>3</v>
@@ -4461,7 +6979,7 @@
       </c>
       <c r="AU76" s="7"/>
     </row>
-    <row r="77" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -4486,7 +7004,7 @@
         <v>33</v>
       </c>
       <c r="AH77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AI77">
         <v>4</v>
@@ -4498,11 +7016,11 @@
         <v>1</v>
       </c>
       <c r="AT77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AU77" s="7"/>
     </row>
-    <row r="78" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -4528,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AH78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AI78">
         <v>6</v>
@@ -4544,7 +7062,7 @@
       </c>
       <c r="AU78" s="7"/>
     </row>
-    <row r="79" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -4567,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AH79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AI79">
         <v>7</v>
@@ -4584,7 +7102,7 @@
       </c>
       <c r="AU79" s="7"/>
     </row>
-    <row r="80" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -4610,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="AH80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI80">
         <v>1</v>
@@ -4632,7 +7150,7 @@
       </c>
       <c r="AU80" s="7"/>
     </row>
-    <row r="81" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4658,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="AH81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI81">
         <v>5</v>
@@ -4679,7 +7197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4702,7 +7220,7 @@
         <v>34</v>
       </c>
       <c r="AH82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -4722,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4775,7 +7293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -4801,7 +7319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -4851,7 +7369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC86" t="s">
         <v>64</v>
       </c>
@@ -4877,7 +7395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -4965,7 +7483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC88" t="s">
         <v>65</v>
       </c>
@@ -4993,7 +7511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AC89" t="s">
         <v>67</v>
       </c>
@@ -5019,7 +7537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AH90" t="s">
         <v>65</v>
       </c>
@@ -5044,7 +7562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AH91" t="s">
         <v>65</v>
       </c>
@@ -5067,7 +7585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AH92" t="s">
         <v>67</v>
       </c>
@@ -5094,7 +7612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AJ93" t="s">
         <v>43</v>
       </c>
@@ -5117,8 +7635,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="C99" s="3" t="s">
+    <row r="99" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C99" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D99">
@@ -5206,7 +7724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>63</v>
       </c>
@@ -5226,10 +7744,10 @@
         <v>0</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="2:33" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>63</v>
       </c>
@@ -5246,10 +7764,10 @@
         <v>1</v>
       </c>
       <c r="AG101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="2:33" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>1</v>
       </c>
@@ -5257,13 +7775,13 @@
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AE102" t="s">
         <v>1</v>
@@ -5275,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -5283,13 +7801,13 @@
         <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE103" t="s">
         <v>1</v>
@@ -5301,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>59</v>
       </c>
@@ -5330,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>59</v>
       </c>
@@ -5354,7 +7872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>5</v>
       </c>
@@ -5380,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>5</v>
       </c>
@@ -5403,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>6</v>
       </c>
@@ -5432,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>6</v>
       </c>
@@ -5455,7 +7973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>7</v>
       </c>
@@ -5481,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>7</v>
       </c>
@@ -5507,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>8</v>
       </c>
@@ -5533,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>8</v>
       </c>
@@ -5556,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>9</v>
       </c>
@@ -5582,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>9</v>
       </c>
@@ -5608,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>10</v>
       </c>
@@ -5631,7 +8149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>10</v>
       </c>
@@ -5651,10 +8169,10 @@
         <v>17</v>
       </c>
       <c r="AG117" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="2:33" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>11</v>
       </c>
@@ -5677,7 +8195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>11</v>
       </c>
@@ -5700,7 +8218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>64</v>
       </c>
@@ -5726,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>64</v>
       </c>
@@ -5734,11 +8252,11 @@
         <v>21</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T121" s="7"/>
       <c r="U121" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V121" s="7"/>
       <c r="W121" s="7"/>
@@ -5761,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>65</v>
       </c>
@@ -5769,11 +8287,11 @@
         <v>22</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S122" s="7"/>
       <c r="T122" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U122" s="7"/>
       <c r="V122" s="7">
@@ -5797,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>65</v>
       </c>
@@ -5805,11 +8323,11 @@
         <v>23</v>
       </c>
       <c r="S123" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T123" s="7"/>
       <c r="U123" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V123" s="7"/>
       <c r="W123" s="7">
@@ -5832,15 +8350,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C124">
         <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R124" s="1" t="s">
         <v>87</v>
@@ -5864,25 +8382,25 @@
         <v>2</v>
       </c>
       <c r="AE124" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF124">
         <v>24</v>
       </c>
       <c r="AG124" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="125" spans="2:33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C125">
         <v>25</v>
       </c>
       <c r="S125" s="7"/>
       <c r="T125" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U125" s="7">
         <v>-1</v>
@@ -5897,18 +8415,18 @@
       <c r="AC125" s="7"/>
       <c r="AD125" s="7"/>
       <c r="AE125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF125">
         <v>25</v>
       </c>
       <c r="AG125" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="126" spans="2:33" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C126">
         <v>26</v>
@@ -5923,7 +8441,7 @@
         <v>-1</v>
       </c>
       <c r="AE126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF126">
         <v>26</v>
@@ -5932,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C127" s="3" t="s">
         <v>38</v>
       </c>
@@ -6021,8 +8539,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="C132" s="3" t="s">
+    <row r="132" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C132" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D132">
@@ -6110,7 +8628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>63</v>
       </c>
@@ -6130,10 +8648,10 @@
         <v>0</v>
       </c>
       <c r="AG133" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="2:33" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>63</v>
       </c>
@@ -6150,10 +8668,10 @@
         <v>1</v>
       </c>
       <c r="AG134" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="135" spans="2:33" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>1</v>
       </c>
@@ -6161,13 +8679,13 @@
         <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AE135" t="s">
         <v>1</v>
@@ -6179,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>1</v>
       </c>
@@ -6187,13 +8705,13 @@
         <v>3</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE136" t="s">
         <v>1</v>
@@ -6205,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>5</v>
       </c>
@@ -6231,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>5</v>
       </c>
@@ -6254,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>6</v>
       </c>
@@ -6283,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>6</v>
       </c>
@@ -6306,7 +8824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>7</v>
       </c>
@@ -6332,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>7</v>
       </c>
@@ -6358,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>27</v>
       </c>
@@ -6387,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>27</v>
       </c>
@@ -6411,7 +8929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>8</v>
       </c>
@@ -6437,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>8</v>
       </c>
@@ -6460,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>9</v>
       </c>
@@ -6486,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>9</v>
       </c>
@@ -6512,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>10</v>
       </c>
@@ -6535,7 +9053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>10</v>
       </c>
@@ -6555,10 +9073,10 @@
         <v>17</v>
       </c>
       <c r="AG150" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="151" spans="2:33" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>11</v>
       </c>
@@ -6581,7 +9099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>11</v>
       </c>
@@ -6604,7 +9122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>64</v>
       </c>
@@ -6630,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>64</v>
       </c>
@@ -6638,11 +9156,11 @@
         <v>21</v>
       </c>
       <c r="S154" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T154" s="7"/>
       <c r="U154" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V154" s="7"/>
       <c r="W154" s="7"/>
@@ -6665,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>65</v>
       </c>
@@ -6673,11 +9191,11 @@
         <v>22</v>
       </c>
       <c r="R155" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S155" s="7"/>
       <c r="T155" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U155" s="7"/>
       <c r="V155" s="7">
@@ -6701,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>65</v>
       </c>
@@ -6709,11 +9227,11 @@
         <v>23</v>
       </c>
       <c r="S156" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T156" s="7"/>
       <c r="U156" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V156" s="7"/>
       <c r="W156" s="7">
@@ -6736,15 +9254,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C157">
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R157" s="1" t="s">
         <v>87</v>
@@ -6768,25 +9286,25 @@
         <v>2</v>
       </c>
       <c r="AE157" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF157">
         <v>24</v>
       </c>
       <c r="AG157" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="2:33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C158">
         <v>25</v>
       </c>
       <c r="S158" s="7"/>
       <c r="T158" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U158" s="7">
         <v>-1</v>
@@ -6801,18 +9319,18 @@
       <c r="AC158" s="7"/>
       <c r="AD158" s="7"/>
       <c r="AE158" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF158">
         <v>25</v>
       </c>
       <c r="AG158" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="159" spans="2:33" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C159">
         <v>26</v>
@@ -6827,7 +9345,7 @@
         <v>-1</v>
       </c>
       <c r="AE159" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF159">
         <v>26</v>
@@ -6836,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C160" s="3" t="s">
         <v>38</v>
       </c>
@@ -6925,7 +9443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="165" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C165" s="11" t="s">
         <v>62</v>
       </c>
@@ -7020,7 +9538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>63</v>
       </c>
@@ -7040,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="AI166" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="167" spans="2:35" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="167" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>63</v>
       </c>
@@ -7060,10 +9578,10 @@
         <v>1</v>
       </c>
       <c r="AI167" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="168" spans="2:35" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>1</v>
       </c>
@@ -7071,13 +9589,13 @@
         <v>2</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG168" t="s">
         <v>1</v>
@@ -7089,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>1</v>
       </c>
@@ -7097,13 +9615,13 @@
         <v>3</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U169" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG169" t="s">
         <v>1</v>
@@ -7115,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>59</v>
       </c>
@@ -7144,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>59</v>
       </c>
@@ -7168,7 +9686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>5</v>
       </c>
@@ -7194,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>5</v>
       </c>
@@ -7217,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>6</v>
       </c>
@@ -7246,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>6</v>
       </c>
@@ -7269,7 +9787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>7</v>
       </c>
@@ -7295,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>7</v>
       </c>
@@ -7321,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>27</v>
       </c>
@@ -7350,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>27</v>
       </c>
@@ -7374,7 +9892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>8</v>
       </c>
@@ -7400,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>8</v>
       </c>
@@ -7423,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>9</v>
       </c>
@@ -7449,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>9</v>
       </c>
@@ -7475,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>10</v>
       </c>
@@ -7498,7 +10016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>10</v>
       </c>
@@ -7518,10 +10036,10 @@
         <v>19</v>
       </c>
       <c r="AI185" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="186" spans="2:35" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>11</v>
       </c>
@@ -7544,7 +10062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>11</v>
       </c>
@@ -7567,7 +10085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>64</v>
       </c>
@@ -7593,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>64</v>
       </c>
@@ -7601,11 +10119,11 @@
         <v>23</v>
       </c>
       <c r="U189" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V189" s="7"/>
       <c r="W189" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X189" s="7"/>
       <c r="Y189" s="7"/>
@@ -7628,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>65</v>
       </c>
@@ -7636,11 +10154,11 @@
         <v>24</v>
       </c>
       <c r="T190" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U190" s="7"/>
       <c r="V190" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W190" s="7"/>
       <c r="X190" s="7">
@@ -7664,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>65</v>
       </c>
@@ -7672,11 +10190,11 @@
         <v>25</v>
       </c>
       <c r="U191" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V191" s="7"/>
       <c r="W191" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X191" s="7"/>
       <c r="Y191" s="7">
@@ -7699,15 +10217,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C192">
         <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T192" s="1" t="s">
         <v>87</v>
@@ -7731,25 +10249,25 @@
         <v>2</v>
       </c>
       <c r="AG192" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH192">
         <v>26</v>
       </c>
       <c r="AI192" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="193" spans="2:35" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="193" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C193">
         <v>27</v>
       </c>
       <c r="U193" s="7"/>
       <c r="V193" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W193" s="7">
         <v>-1</v>
@@ -7764,18 +10282,18 @@
       <c r="AE193" s="7"/>
       <c r="AF193" s="7"/>
       <c r="AG193" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH193">
         <v>27</v>
       </c>
       <c r="AI193" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="194" spans="2:35" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C194">
         <v>28</v>
@@ -7790,7 +10308,7 @@
         <v>-1</v>
       </c>
       <c r="AG194" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH194">
         <v>28</v>
@@ -7799,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C195" s="3" t="s">
         <v>38</v>
       </c>
@@ -7864,10 +10382,10 @@
         <v>86</v>
       </c>
       <c r="X195" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y195" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Z195" t="s">
         <v>51</v>
